--- a/ASP.NET CORE/Car_MNS/CarMNS/CarMNS/wwwroot/templates/Taxi Draff Form_Tmp.xlsx
+++ b/ASP.NET CORE/Car_MNS/CarMNS/CarMNS/wwwroot/templates/Taxi Draff Form_Tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\Car_MNS\CarMNS\CarMNS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A348D-9C99-41CA-B4F9-8BDAC1B0F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A04046-4347-4B6B-99C5-55A2A53B75CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD6D882-BC72-4FBB-A3DF-791E36A12118}"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="38640" windowHeight="21240" xr2:uid="{7BD6D882-BC72-4FBB-A3DF-791E36A12118}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Form!$C$12:$O$96</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Form!$B$1:$N$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Form!$B$1:$N$301</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1297,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179013F7-CDEC-40C6-B314-9967EA43450A}">
-  <dimension ref="A1:U160"/>
+  <dimension ref="A1:U308"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="79">
-        <f>SUMIF($N$8:$N$144,S2,$M$8:$M$144)</f>
+        <f>SUMIF($N$8:$N$292,S2,$M$8:$M$292)</f>
         <v>0</v>
       </c>
       <c r="U2" s="12"/>
@@ -2795,7 +2795,7 @@
         <v>3</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" ref="T3:T12" si="1">SUMIF($N$8:$N$144,S3,$M$8:$M$144)</f>
+        <f>SUMIF($N$8:$N$292,S3,$M$8:$M$292)</f>
         <v>0</v>
       </c>
       <c r="U3" s="12"/>
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="T4" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S4,$M$8:$M$292)</f>
         <v>0</v>
       </c>
       <c r="U4" s="12"/>
@@ -2854,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="T5" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S5,$M$8:$M$292)</f>
         <v>0</v>
       </c>
       <c r="U5" s="20"/>
@@ -2883,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="T6" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S6,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
         <v>21</v>
       </c>
       <c r="T7" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S7,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
         <v>22</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S8,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
@@ -2996,13 +2996,13 @@
         <v>23</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S9,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
-        <f t="shared" ref="C10:C73" si="2">1+C9</f>
+        <f t="shared" ref="C10:C73" si="1">1+C9</f>
         <v>3</v>
       </c>
       <c r="D10" s="37"/>
@@ -3027,13 +3027,13 @@
         <v>24</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S10,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D11" s="37"/>
@@ -3058,13 +3058,13 @@
         <v>25</v>
       </c>
       <c r="T11" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S11,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D12" s="37"/>
@@ -3089,13 +3089,13 @@
         <v>26</v>
       </c>
       <c r="T12" s="35">
-        <f t="shared" si="1"/>
+        <f>SUMIF($N$8:$N$292,S12,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D13" s="37"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="14" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D14" s="37"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="15" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D15" s="37"/>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="16" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D16" s="37"/>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="17" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D17" s="37"/>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="18" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D18" s="37"/>
@@ -3238,13 +3238,13 @@
         <v>30</v>
       </c>
       <c r="T18" s="53">
-        <f>SUMIF($G$8:$G$144,$S18,$M$8:$M$144)</f>
+        <f>SUMIF($G$8:$G$292,$S18,$M$8:$M$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D19" s="37"/>
@@ -3269,13 +3269,13 @@
         <v>31</v>
       </c>
       <c r="T19" s="53">
-        <f t="shared" ref="T19:T34" si="3">SUMIF($G$8:$G$144,$S19,$L$8:$L$144)</f>
+        <f>SUMIF($G$8:$G$292,$S19,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D20" s="37"/>
@@ -3293,20 +3293,20 @@
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="51">
-        <f t="shared" ref="R20:R33" si="4">1+R19</f>
+        <f t="shared" ref="R20:R33" si="2">1+R19</f>
         <v>3</v>
       </c>
       <c r="S20" s="52" t="s">
         <v>32</v>
       </c>
       <c r="T20" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S20,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D21" s="37"/>
@@ -3324,20 +3324,20 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S21" s="52" t="s">
         <v>33</v>
       </c>
       <c r="T21" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S21,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D22" s="37"/>
@@ -3355,20 +3355,20 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
       <c r="R22" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="S22" s="52" t="s">
         <v>34</v>
       </c>
       <c r="T22" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S22,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D23" s="37"/>
@@ -3386,20 +3386,20 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S23" s="52" t="s">
         <v>35</v>
       </c>
       <c r="T23" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S23,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D24" s="37"/>
@@ -3417,20 +3417,20 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S24" s="52" t="s">
         <v>36</v>
       </c>
       <c r="T24" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S24,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D25" s="37"/>
@@ -3448,20 +3448,20 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S25" s="52" t="s">
         <v>37</v>
       </c>
       <c r="T25" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S25,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D26" s="37"/>
@@ -3479,20 +3479,20 @@
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S26" s="52" t="s">
         <v>38</v>
       </c>
       <c r="T26" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S26,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D27" s="37"/>
@@ -3510,20 +3510,20 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="S27" s="52" t="s">
         <v>39</v>
       </c>
       <c r="T27" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S27,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D28" s="37"/>
@@ -3541,20 +3541,20 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
       <c r="R28" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="S28" s="52" t="s">
         <v>40</v>
       </c>
       <c r="T28" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S28,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D29" s="37"/>
@@ -3572,20 +3572,20 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S29" s="52" t="s">
         <v>41</v>
       </c>
       <c r="T29" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S29,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D30" s="37"/>
@@ -3603,20 +3603,20 @@
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="S30" s="52" t="s">
         <v>42</v>
       </c>
       <c r="T30" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S30,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:20" s="55" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D31" s="37"/>
@@ -3634,20 +3634,20 @@
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="S31" s="52" t="s">
         <v>43</v>
       </c>
       <c r="T31" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S31,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:20" s="55" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D32" s="37"/>
@@ -3665,20 +3665,20 @@
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="S32" s="52" t="s">
         <v>44</v>
       </c>
       <c r="T32" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S32,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D33" s="37"/>
@@ -3696,20 +3696,20 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S33" s="52" t="s">
         <v>45</v>
       </c>
       <c r="T33" s="53">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S33,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D34" s="37"/>
@@ -3734,13 +3734,13 @@
         <v>46</v>
       </c>
       <c r="T34" s="58">
-        <f t="shared" si="3"/>
+        <f>SUMIF($G$8:$G$292,$S34,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D35" s="37"/>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="36" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D36" s="37"/>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="37" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D37" s="37"/>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="38" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D38" s="37"/>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="39" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D39" s="37"/>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="40" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D40" s="37"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="41" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D41" s="37"/>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="42" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D42" s="37"/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="43" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D43" s="37"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="44" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D44" s="37"/>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="45" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D45" s="37"/>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="46" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D46" s="37"/>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="47" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D47" s="37"/>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="48" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D48" s="37"/>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="49" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D49" s="37"/>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="50" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="D50" s="37"/>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="51" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D51" s="37"/>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="52" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D52" s="37"/>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="53" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D53" s="37"/>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="54" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="D54" s="37"/>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="55" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D55" s="37"/>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="56" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="D56" s="37"/>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="57" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D57" s="37"/>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="58" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="D58" s="37"/>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="59" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="D59" s="37"/>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="60" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="D60" s="37"/>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="61" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="D61" s="37"/>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="62" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="D62" s="37"/>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="63" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="D63" s="37"/>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="64" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="D64" s="37"/>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="65" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="D65" s="37"/>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="66" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="D66" s="37"/>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="67" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D67" s="37"/>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="68" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="D68" s="37"/>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="69" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="D69" s="37"/>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="70" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="D70" s="37"/>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="71" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D71" s="37"/>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="72" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="D72" s="37"/>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="73" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="D73" s="37"/>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="74" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="36">
-        <f t="shared" ref="C74:C137" si="5">1+C73</f>
+        <f t="shared" ref="C74:C138" si="3">1+C73</f>
         <v>67</v>
       </c>
       <c r="D74" s="37"/>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="75" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="D75" s="37"/>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="76" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="D76" s="37"/>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="77" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="D77" s="37"/>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="78" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="D78" s="37"/>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="79" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="D79" s="37"/>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="80" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="D80" s="37"/>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="81" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="D81" s="37"/>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="82" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="D82" s="37"/>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="83" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="D83" s="37"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="84" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="D84" s="37"/>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="85" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="D85" s="37"/>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="86" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="D86" s="37"/>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="87" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="D87" s="37"/>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="88" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="D88" s="37"/>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="89" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="D89" s="37"/>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="90" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="D90" s="37"/>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="91" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="D91" s="37"/>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="92" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="D92" s="37"/>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="93" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="D93" s="37"/>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="94" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="D94" s="37"/>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="95" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="D95" s="37"/>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="96" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="D96" s="37"/>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="97" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="D97" s="37"/>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="98" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="D98" s="37"/>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="99" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="D99" s="37"/>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="100" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="D100" s="37"/>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="101" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="D101" s="37"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="102" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="D102" s="37"/>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="103" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="D103" s="37"/>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="104" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="D104" s="37"/>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="105" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="D105" s="37"/>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="106" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="D106" s="37"/>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="107" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D107" s="37"/>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="108" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="D108" s="37"/>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="109" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="D109" s="37"/>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="110" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="D110" s="37"/>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="111" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="D111" s="37"/>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="112" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="D112" s="37"/>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="113" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="D113" s="37"/>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="114" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="D114" s="37"/>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="115" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="D115" s="37"/>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="116" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="D116" s="37"/>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="117" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="D117" s="37"/>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="118" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="D118" s="37"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="119" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="D119" s="37"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="120" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="D120" s="37"/>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="121" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="D121" s="37"/>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="122" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="D122" s="37"/>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="123" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="D123" s="37"/>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="124" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="D124" s="37"/>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="125" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="D125" s="37"/>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="126" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="D126" s="37"/>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="127" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="D127" s="37"/>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="128" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="D128" s="37"/>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="129" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="D129" s="37"/>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="130" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="D130" s="37"/>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="131" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="D131" s="37"/>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="132" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="D132" s="37"/>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="133" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="D133" s="37"/>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="134" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="D134" s="37"/>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="135" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="D135" s="37"/>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="136" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="D136" s="37"/>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="137" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="D137" s="37"/>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="138" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="36">
-        <f t="shared" ref="C138:C144" si="6">1+C137</f>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="D138" s="37"/>
@@ -6014,9 +6014,9 @@
       <c r="R138" s="26"/>
       <c r="T138" s="54"/>
     </row>
-    <row r="139" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C139:C292" si="4">1+C138</f>
         <v>132</v>
       </c>
       <c r="D139" s="37"/>
@@ -6028,17 +6028,17 @@
       <c r="J139" s="39"/>
       <c r="K139" s="41"/>
       <c r="L139" s="42"/>
-      <c r="M139" s="56"/>
+      <c r="M139" s="43"/>
       <c r="N139" s="36"/>
       <c r="O139" s="32"/>
       <c r="P139" s="26"/>
       <c r="Q139" s="26"/>
       <c r="R139" s="26"/>
-      <c r="S139" s="21"/>
-    </row>
-    <row r="140" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T139" s="54"/>
+    </row>
+    <row r="140" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="D140" s="37"/>
@@ -6050,17 +6050,17 @@
       <c r="J140" s="39"/>
       <c r="K140" s="41"/>
       <c r="L140" s="42"/>
-      <c r="M140" s="56"/>
+      <c r="M140" s="43"/>
       <c r="N140" s="36"/>
       <c r="O140" s="32"/>
       <c r="P140" s="26"/>
       <c r="Q140" s="26"/>
       <c r="R140" s="26"/>
-      <c r="S140" s="21"/>
-    </row>
-    <row r="141" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T140" s="54"/>
+    </row>
+    <row r="141" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="D141" s="37"/>
@@ -6072,18 +6072,17 @@
       <c r="J141" s="39"/>
       <c r="K141" s="41"/>
       <c r="L141" s="42"/>
-      <c r="M141" s="56"/>
+      <c r="M141" s="43"/>
       <c r="N141" s="36"/>
       <c r="O141" s="32"/>
       <c r="P141" s="26"/>
       <c r="Q141" s="26"/>
       <c r="R141" s="26"/>
-      <c r="S141" s="21"/>
-      <c r="T141" s="21"/>
-    </row>
-    <row r="142" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T141" s="54"/>
+    </row>
+    <row r="142" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="D142" s="37"/>
@@ -6101,12 +6100,11 @@
       <c r="P142" s="26"/>
       <c r="Q142" s="26"/>
       <c r="R142" s="26"/>
-      <c r="S142" s="21"/>
-      <c r="T142" s="21"/>
-    </row>
-    <row r="143" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T142" s="54"/>
+    </row>
+    <row r="143" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="D143" s="37"/>
@@ -6124,12 +6122,11 @@
       <c r="P143" s="26"/>
       <c r="Q143" s="26"/>
       <c r="R143" s="26"/>
-      <c r="S143" s="21"/>
-      <c r="T143" s="21"/>
-    </row>
-    <row r="144" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T143" s="54"/>
+    </row>
+    <row r="144" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="D144" s="37"/>
@@ -6147,75 +6144,67 @@
       <c r="P144" s="26"/>
       <c r="Q144" s="26"/>
       <c r="R144" s="26"/>
-      <c r="S144" s="21"/>
-    </row>
-    <row r="145" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="36"/>
-      <c r="D145" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E145" s="61"/>
-      <c r="F145" s="61"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61"/>
-      <c r="I145" s="61"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="62"/>
-      <c r="L145" s="63">
-        <f>SUM(L8:L144)</f>
-        <v>0</v>
-      </c>
-      <c r="M145" s="63">
-        <f>SUM(M8:M144)</f>
-        <v>0</v>
-      </c>
+      <c r="T144" s="54"/>
+    </row>
+    <row r="145" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="36">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="D145" s="37"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="43"/>
       <c r="N145" s="36"/>
       <c r="O145" s="32"/>
       <c r="P145" s="26"/>
       <c r="Q145" s="26"/>
       <c r="R145" s="26"/>
-      <c r="S145" s="21"/>
-    </row>
-    <row r="146" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="36"/>
-      <c r="D146" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="67"/>
-      <c r="K146" s="67"/>
-      <c r="L146" s="63">
-        <f>IF(AND(L145&gt;5000000,L145&lt;20000000),(L145-5000000)*2%,IF(AND(L145&gt;20000000,L145&lt;30000000),(300000+(L145-20000000)*3%),IF(AND(L145&gt;30000000,L145&lt;50000000),600000+(L145-30000000)*4%,IF(AND(L145&gt;50000000),1400000+(L145-50000000)*5%,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="M146" s="63"/>
+      <c r="T145" s="54"/>
+    </row>
+    <row r="146" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="36">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="D146" s="37"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="39"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="41"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="43"/>
       <c r="N146" s="36"/>
       <c r="O146" s="32"/>
       <c r="P146" s="26"/>
       <c r="Q146" s="26"/>
       <c r="R146" s="26"/>
-      <c r="S146" s="21"/>
-    </row>
-    <row r="147" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="36"/>
-      <c r="D147" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="67"/>
-      <c r="H147" s="67"/>
-      <c r="I147" s="67"/>
-      <c r="J147" s="67"/>
-      <c r="K147" s="67"/>
-      <c r="L147" s="63">
-        <v>0</v>
-      </c>
-      <c r="M147" s="63"/>
+      <c r="T146" s="54"/>
+    </row>
+    <row r="147" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="36">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="D147" s="37"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="41"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="43"/>
       <c r="N147" s="36"/>
       <c r="O147" s="32"/>
       <c r="P147" s="26"/>
@@ -6223,23 +6212,21 @@
       <c r="R147" s="26"/>
       <c r="T147" s="54"/>
     </row>
-    <row r="148" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="36"/>
-      <c r="D148" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="67"/>
-      <c r="J148" s="67"/>
-      <c r="K148" s="67"/>
-      <c r="L148" s="63">
-        <f>L145-L146-L147</f>
-        <v>0</v>
-      </c>
-      <c r="M148" s="63"/>
+    <row r="148" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="36">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="D148" s="37"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="41"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="43"/>
       <c r="N148" s="36"/>
       <c r="O148" s="32"/>
       <c r="P148" s="26"/>
@@ -6247,140 +6234,3412 @@
       <c r="R148" s="26"/>
       <c r="T148" s="54"/>
     </row>
-    <row r="149" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="36">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="D149" s="37"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="39"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="41"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="36"/>
       <c r="O149" s="32"/>
       <c r="P149" s="26"/>
       <c r="Q149" s="26"/>
       <c r="R149" s="26"/>
       <c r="T149" s="54"/>
     </row>
-    <row r="150" spans="1:20" s="66" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="59"/>
-      <c r="B150" s="59"/>
-      <c r="O150" s="64"/>
-      <c r="P150" s="65"/>
-      <c r="Q150" s="65"/>
-      <c r="R150" s="65"/>
-      <c r="S150" s="59"/>
-    </row>
-    <row r="151" spans="1:20" s="66" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="59"/>
-      <c r="B151" s="59"/>
-      <c r="O151" s="64"/>
-      <c r="P151" s="65"/>
-      <c r="Q151" s="65"/>
-      <c r="R151" s="65"/>
-      <c r="S151" s="68"/>
-    </row>
-    <row r="152" spans="1:20" s="66" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="59"/>
-      <c r="B152" s="59"/>
-      <c r="O152" s="64"/>
-      <c r="P152" s="65"/>
-      <c r="Q152" s="65"/>
-      <c r="R152" s="65"/>
-      <c r="S152" s="68"/>
-    </row>
-    <row r="153" spans="1:20" s="66" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="59"/>
-      <c r="B153" s="59"/>
-      <c r="O153" s="64"/>
-      <c r="P153" s="65"/>
-      <c r="Q153" s="65"/>
-      <c r="R153" s="65"/>
-      <c r="S153" s="59"/>
-    </row>
-    <row r="154" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="84"/>
-      <c r="E154" s="84"/>
-      <c r="F154" s="84"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="84"/>
-      <c r="I154" s="84"/>
-      <c r="J154" s="84"/>
-      <c r="K154" s="84"/>
-      <c r="L154" s="69"/>
-      <c r="M154" s="69"/>
-      <c r="O154" s="71"/>
-      <c r="P154" s="70"/>
-      <c r="Q154" s="70"/>
-      <c r="R154" s="70"/>
-      <c r="S154" s="20"/>
-    </row>
-    <row r="155" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="73"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="74"/>
-      <c r="N155" s="21"/>
-      <c r="O155" s="76"/>
-      <c r="P155" s="75"/>
-      <c r="Q155" s="75"/>
-      <c r="R155" s="75"/>
-      <c r="S155" s="80"/>
-    </row>
-    <row r="156" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="72"/>
-      <c r="I156" s="73"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="74"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
-      <c r="S156" s="80"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S157" s="80"/>
-    </row>
-    <row r="160" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="72"/>
-      <c r="I160" s="73"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="74"/>
-      <c r="N160" s="21"/>
-      <c r="O160" s="71"/>
-      <c r="P160" s="70"/>
-      <c r="Q160" s="70"/>
-      <c r="R160" s="70"/>
-      <c r="S160" s="20"/>
+    <row r="150" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="36">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="D150" s="37"/>
+      <c r="E150" s="38"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="39"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="36"/>
+      <c r="O150" s="32"/>
+      <c r="P150" s="26"/>
+      <c r="Q150" s="26"/>
+      <c r="R150" s="26"/>
+      <c r="T150" s="54"/>
+    </row>
+    <row r="151" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="36">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D151" s="37"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="41"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="36"/>
+      <c r="O151" s="32"/>
+      <c r="P151" s="26"/>
+      <c r="Q151" s="26"/>
+      <c r="R151" s="26"/>
+      <c r="T151" s="54"/>
+    </row>
+    <row r="152" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="36">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="D152" s="37"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="39"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="41"/>
+      <c r="L152" s="42"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="36"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="26"/>
+      <c r="Q152" s="26"/>
+      <c r="R152" s="26"/>
+      <c r="T152" s="54"/>
+    </row>
+    <row r="153" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="36">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="D153" s="37"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="39"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="41"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="36"/>
+      <c r="O153" s="32"/>
+      <c r="P153" s="26"/>
+      <c r="Q153" s="26"/>
+      <c r="R153" s="26"/>
+      <c r="T153" s="54"/>
+    </row>
+    <row r="154" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="36">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="D154" s="37"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="39"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="41"/>
+      <c r="L154" s="42"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="36"/>
+      <c r="O154" s="32"/>
+      <c r="P154" s="26"/>
+      <c r="Q154" s="26"/>
+      <c r="R154" s="26"/>
+      <c r="T154" s="54"/>
+    </row>
+    <row r="155" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="36">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="D155" s="37"/>
+      <c r="E155" s="38"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="39"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="41"/>
+      <c r="L155" s="42"/>
+      <c r="M155" s="43"/>
+      <c r="N155" s="36"/>
+      <c r="O155" s="32"/>
+      <c r="P155" s="26"/>
+      <c r="Q155" s="26"/>
+      <c r="R155" s="26"/>
+      <c r="T155" s="54"/>
+    </row>
+    <row r="156" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="36">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="D156" s="37"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="39"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="39"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="41"/>
+      <c r="L156" s="42"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="36"/>
+      <c r="O156" s="32"/>
+      <c r="P156" s="26"/>
+      <c r="Q156" s="26"/>
+      <c r="R156" s="26"/>
+      <c r="T156" s="54"/>
+    </row>
+    <row r="157" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="36">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="D157" s="37"/>
+      <c r="E157" s="38"/>
+      <c r="F157" s="39"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="39"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="43"/>
+      <c r="N157" s="36"/>
+      <c r="O157" s="32"/>
+      <c r="P157" s="26"/>
+      <c r="Q157" s="26"/>
+      <c r="R157" s="26"/>
+      <c r="T157" s="54"/>
+    </row>
+    <row r="158" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="36">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="D158" s="37"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="39"/>
+      <c r="J158" s="39"/>
+      <c r="K158" s="41"/>
+      <c r="L158" s="42"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="36"/>
+      <c r="O158" s="32"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26"/>
+      <c r="T158" s="54"/>
+    </row>
+    <row r="159" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="36">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="D159" s="37"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="39"/>
+      <c r="G159" s="39"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="39"/>
+      <c r="J159" s="39"/>
+      <c r="K159" s="41"/>
+      <c r="L159" s="42"/>
+      <c r="M159" s="43"/>
+      <c r="N159" s="36"/>
+      <c r="O159" s="32"/>
+      <c r="P159" s="26"/>
+      <c r="Q159" s="26"/>
+      <c r="R159" s="26"/>
+      <c r="T159" s="54"/>
+    </row>
+    <row r="160" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="36">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="D160" s="37"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39"/>
+      <c r="H160" s="40"/>
+      <c r="I160" s="39"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="41"/>
+      <c r="L160" s="42"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="36"/>
+      <c r="O160" s="32"/>
+      <c r="P160" s="26"/>
+      <c r="Q160" s="26"/>
+      <c r="R160" s="26"/>
+      <c r="T160" s="54"/>
+    </row>
+    <row r="161" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="36">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="D161" s="37"/>
+      <c r="E161" s="38"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="39"/>
+      <c r="J161" s="39"/>
+      <c r="K161" s="41"/>
+      <c r="L161" s="42"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="36"/>
+      <c r="O161" s="32"/>
+      <c r="P161" s="26"/>
+      <c r="Q161" s="26"/>
+      <c r="R161" s="26"/>
+      <c r="T161" s="54"/>
+    </row>
+    <row r="162" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="36">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="D162" s="37"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="39"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="39"/>
+      <c r="J162" s="39"/>
+      <c r="K162" s="41"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="43"/>
+      <c r="N162" s="36"/>
+      <c r="O162" s="32"/>
+      <c r="P162" s="26"/>
+      <c r="Q162" s="26"/>
+      <c r="R162" s="26"/>
+      <c r="T162" s="54"/>
+    </row>
+    <row r="163" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="36">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="D163" s="37"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="39"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="39"/>
+      <c r="J163" s="39"/>
+      <c r="K163" s="41"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="43"/>
+      <c r="N163" s="36"/>
+      <c r="O163" s="32"/>
+      <c r="P163" s="26"/>
+      <c r="Q163" s="26"/>
+      <c r="R163" s="26"/>
+      <c r="T163" s="54"/>
+    </row>
+    <row r="164" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="36">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="D164" s="37"/>
+      <c r="E164" s="38"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="39"/>
+      <c r="J164" s="39"/>
+      <c r="K164" s="41"/>
+      <c r="L164" s="42"/>
+      <c r="M164" s="43"/>
+      <c r="N164" s="36"/>
+      <c r="O164" s="32"/>
+      <c r="P164" s="26"/>
+      <c r="Q164" s="26"/>
+      <c r="R164" s="26"/>
+      <c r="T164" s="54"/>
+    </row>
+    <row r="165" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="36">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="D165" s="37"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="40"/>
+      <c r="I165" s="39"/>
+      <c r="J165" s="39"/>
+      <c r="K165" s="41"/>
+      <c r="L165" s="42"/>
+      <c r="M165" s="43"/>
+      <c r="N165" s="36"/>
+      <c r="O165" s="32"/>
+      <c r="P165" s="26"/>
+      <c r="Q165" s="26"/>
+      <c r="R165" s="26"/>
+      <c r="T165" s="54"/>
+    </row>
+    <row r="166" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="36">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="D166" s="37"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="39"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="41"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="43"/>
+      <c r="N166" s="36"/>
+      <c r="O166" s="32"/>
+      <c r="P166" s="26"/>
+      <c r="Q166" s="26"/>
+      <c r="R166" s="26"/>
+      <c r="T166" s="54"/>
+    </row>
+    <row r="167" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="36">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="D167" s="37"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="40"/>
+      <c r="I167" s="39"/>
+      <c r="J167" s="39"/>
+      <c r="K167" s="41"/>
+      <c r="L167" s="42"/>
+      <c r="M167" s="43"/>
+      <c r="N167" s="36"/>
+      <c r="O167" s="32"/>
+      <c r="P167" s="26"/>
+      <c r="Q167" s="26"/>
+      <c r="R167" s="26"/>
+      <c r="T167" s="54"/>
+    </row>
+    <row r="168" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="36">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="D168" s="37"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="39"/>
+      <c r="J168" s="39"/>
+      <c r="K168" s="41"/>
+      <c r="L168" s="42"/>
+      <c r="M168" s="43"/>
+      <c r="N168" s="36"/>
+      <c r="O168" s="32"/>
+      <c r="P168" s="26"/>
+      <c r="Q168" s="26"/>
+      <c r="R168" s="26"/>
+      <c r="T168" s="54"/>
+    </row>
+    <row r="169" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="36">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="D169" s="37"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="39"/>
+      <c r="G169" s="39"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="39"/>
+      <c r="J169" s="39"/>
+      <c r="K169" s="41"/>
+      <c r="L169" s="42"/>
+      <c r="M169" s="43"/>
+      <c r="N169" s="36"/>
+      <c r="O169" s="32"/>
+      <c r="P169" s="26"/>
+      <c r="Q169" s="26"/>
+      <c r="R169" s="26"/>
+      <c r="T169" s="54"/>
+    </row>
+    <row r="170" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="36">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="D170" s="37"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="40"/>
+      <c r="I170" s="39"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="42"/>
+      <c r="M170" s="43"/>
+      <c r="N170" s="36"/>
+      <c r="O170" s="32"/>
+      <c r="P170" s="26"/>
+      <c r="Q170" s="26"/>
+      <c r="R170" s="26"/>
+      <c r="T170" s="54"/>
+    </row>
+    <row r="171" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="36">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="D171" s="37"/>
+      <c r="E171" s="38"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="39"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="41"/>
+      <c r="L171" s="42"/>
+      <c r="M171" s="43"/>
+      <c r="N171" s="36"/>
+      <c r="O171" s="32"/>
+      <c r="P171" s="26"/>
+      <c r="Q171" s="26"/>
+      <c r="R171" s="26"/>
+      <c r="T171" s="54"/>
+    </row>
+    <row r="172" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="36">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="D172" s="37"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="41"/>
+      <c r="L172" s="42"/>
+      <c r="M172" s="43"/>
+      <c r="N172" s="36"/>
+      <c r="O172" s="32"/>
+      <c r="P172" s="26"/>
+      <c r="Q172" s="26"/>
+      <c r="R172" s="26"/>
+      <c r="T172" s="54"/>
+    </row>
+    <row r="173" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="36">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="D173" s="37"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="39"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="39"/>
+      <c r="J173" s="39"/>
+      <c r="K173" s="41"/>
+      <c r="L173" s="42"/>
+      <c r="M173" s="43"/>
+      <c r="N173" s="36"/>
+      <c r="O173" s="32"/>
+      <c r="P173" s="26"/>
+      <c r="Q173" s="26"/>
+      <c r="R173" s="26"/>
+      <c r="T173" s="54"/>
+    </row>
+    <row r="174" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="36">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="D174" s="37"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="39"/>
+      <c r="H174" s="40"/>
+      <c r="I174" s="39"/>
+      <c r="J174" s="39"/>
+      <c r="K174" s="41"/>
+      <c r="L174" s="42"/>
+      <c r="M174" s="43"/>
+      <c r="N174" s="36"/>
+      <c r="O174" s="32"/>
+      <c r="P174" s="26"/>
+      <c r="Q174" s="26"/>
+      <c r="R174" s="26"/>
+      <c r="T174" s="54"/>
+    </row>
+    <row r="175" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="36">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="D175" s="37"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="39"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="41"/>
+      <c r="L175" s="42"/>
+      <c r="M175" s="43"/>
+      <c r="N175" s="36"/>
+      <c r="O175" s="32"/>
+      <c r="P175" s="26"/>
+      <c r="Q175" s="26"/>
+      <c r="R175" s="26"/>
+      <c r="T175" s="54"/>
+    </row>
+    <row r="176" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="36">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="D176" s="37"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="39"/>
+      <c r="J176" s="39"/>
+      <c r="K176" s="41"/>
+      <c r="L176" s="42"/>
+      <c r="M176" s="43"/>
+      <c r="N176" s="36"/>
+      <c r="O176" s="32"/>
+      <c r="P176" s="26"/>
+      <c r="Q176" s="26"/>
+      <c r="R176" s="26"/>
+      <c r="T176" s="54"/>
+    </row>
+    <row r="177" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="36">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="D177" s="37"/>
+      <c r="E177" s="38"/>
+      <c r="F177" s="39"/>
+      <c r="G177" s="39"/>
+      <c r="H177" s="40"/>
+      <c r="I177" s="39"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="41"/>
+      <c r="L177" s="42"/>
+      <c r="M177" s="43"/>
+      <c r="N177" s="36"/>
+      <c r="O177" s="32"/>
+      <c r="P177" s="26"/>
+      <c r="Q177" s="26"/>
+      <c r="R177" s="26"/>
+      <c r="T177" s="54"/>
+    </row>
+    <row r="178" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="36">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="D178" s="37"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="39"/>
+      <c r="G178" s="39"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="39"/>
+      <c r="J178" s="39"/>
+      <c r="K178" s="41"/>
+      <c r="L178" s="42"/>
+      <c r="M178" s="43"/>
+      <c r="N178" s="36"/>
+      <c r="O178" s="32"/>
+      <c r="P178" s="26"/>
+      <c r="Q178" s="26"/>
+      <c r="R178" s="26"/>
+      <c r="T178" s="54"/>
+    </row>
+    <row r="179" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="36">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="D179" s="37"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="40"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="41"/>
+      <c r="L179" s="42"/>
+      <c r="M179" s="43"/>
+      <c r="N179" s="36"/>
+      <c r="O179" s="32"/>
+      <c r="P179" s="26"/>
+      <c r="Q179" s="26"/>
+      <c r="R179" s="26"/>
+      <c r="T179" s="54"/>
+    </row>
+    <row r="180" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="36">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="D180" s="37"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="40"/>
+      <c r="I180" s="39"/>
+      <c r="J180" s="39"/>
+      <c r="K180" s="41"/>
+      <c r="L180" s="42"/>
+      <c r="M180" s="43"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="32"/>
+      <c r="P180" s="26"/>
+      <c r="Q180" s="26"/>
+      <c r="R180" s="26"/>
+      <c r="T180" s="54"/>
+    </row>
+    <row r="181" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="36">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="D181" s="37"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="39"/>
+      <c r="H181" s="40"/>
+      <c r="I181" s="39"/>
+      <c r="J181" s="39"/>
+      <c r="K181" s="41"/>
+      <c r="L181" s="42"/>
+      <c r="M181" s="43"/>
+      <c r="N181" s="36"/>
+      <c r="O181" s="32"/>
+      <c r="P181" s="26"/>
+      <c r="Q181" s="26"/>
+      <c r="R181" s="26"/>
+      <c r="T181" s="54"/>
+    </row>
+    <row r="182" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="36">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="D182" s="37"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="40"/>
+      <c r="I182" s="39"/>
+      <c r="J182" s="39"/>
+      <c r="K182" s="41"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="43"/>
+      <c r="N182" s="36"/>
+      <c r="O182" s="32"/>
+      <c r="P182" s="26"/>
+      <c r="Q182" s="26"/>
+      <c r="R182" s="26"/>
+      <c r="T182" s="54"/>
+    </row>
+    <row r="183" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="36">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="D183" s="37"/>
+      <c r="E183" s="38"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="40"/>
+      <c r="I183" s="39"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="41"/>
+      <c r="L183" s="42"/>
+      <c r="M183" s="43"/>
+      <c r="N183" s="36"/>
+      <c r="O183" s="32"/>
+      <c r="P183" s="26"/>
+      <c r="Q183" s="26"/>
+      <c r="R183" s="26"/>
+      <c r="T183" s="54"/>
+    </row>
+    <row r="184" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="36">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="D184" s="37"/>
+      <c r="E184" s="38"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="39"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="41"/>
+      <c r="L184" s="42"/>
+      <c r="M184" s="43"/>
+      <c r="N184" s="36"/>
+      <c r="O184" s="32"/>
+      <c r="P184" s="26"/>
+      <c r="Q184" s="26"/>
+      <c r="R184" s="26"/>
+      <c r="T184" s="54"/>
+    </row>
+    <row r="185" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="36">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="D185" s="37"/>
+      <c r="E185" s="38"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="40"/>
+      <c r="I185" s="39"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="41"/>
+      <c r="L185" s="42"/>
+      <c r="M185" s="43"/>
+      <c r="N185" s="36"/>
+      <c r="O185" s="32"/>
+      <c r="P185" s="26"/>
+      <c r="Q185" s="26"/>
+      <c r="R185" s="26"/>
+      <c r="T185" s="54"/>
+    </row>
+    <row r="186" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="36">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="D186" s="37"/>
+      <c r="E186" s="38"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="40"/>
+      <c r="I186" s="39"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="41"/>
+      <c r="L186" s="42"/>
+      <c r="M186" s="43"/>
+      <c r="N186" s="36"/>
+      <c r="O186" s="32"/>
+      <c r="P186" s="26"/>
+      <c r="Q186" s="26"/>
+      <c r="R186" s="26"/>
+      <c r="T186" s="54"/>
+    </row>
+    <row r="187" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="36">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="D187" s="37"/>
+      <c r="E187" s="38"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="39"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="41"/>
+      <c r="L187" s="42"/>
+      <c r="M187" s="43"/>
+      <c r="N187" s="36"/>
+      <c r="O187" s="32"/>
+      <c r="P187" s="26"/>
+      <c r="Q187" s="26"/>
+      <c r="R187" s="26"/>
+      <c r="T187" s="54"/>
+    </row>
+    <row r="188" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="36">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="D188" s="37"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="39"/>
+      <c r="G188" s="39"/>
+      <c r="H188" s="40"/>
+      <c r="I188" s="39"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="41"/>
+      <c r="L188" s="42"/>
+      <c r="M188" s="43"/>
+      <c r="N188" s="36"/>
+      <c r="O188" s="32"/>
+      <c r="P188" s="26"/>
+      <c r="Q188" s="26"/>
+      <c r="R188" s="26"/>
+      <c r="T188" s="54"/>
+    </row>
+    <row r="189" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="36">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="D189" s="37"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="39"/>
+      <c r="G189" s="39"/>
+      <c r="H189" s="40"/>
+      <c r="I189" s="39"/>
+      <c r="J189" s="39"/>
+      <c r="K189" s="41"/>
+      <c r="L189" s="42"/>
+      <c r="M189" s="43"/>
+      <c r="N189" s="36"/>
+      <c r="O189" s="32"/>
+      <c r="P189" s="26"/>
+      <c r="Q189" s="26"/>
+      <c r="R189" s="26"/>
+      <c r="T189" s="54"/>
+    </row>
+    <row r="190" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="36">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="D190" s="37"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="39"/>
+      <c r="G190" s="39"/>
+      <c r="H190" s="40"/>
+      <c r="I190" s="39"/>
+      <c r="J190" s="39"/>
+      <c r="K190" s="41"/>
+      <c r="L190" s="42"/>
+      <c r="M190" s="43"/>
+      <c r="N190" s="36"/>
+      <c r="O190" s="32"/>
+      <c r="P190" s="26"/>
+      <c r="Q190" s="26"/>
+      <c r="R190" s="26"/>
+      <c r="T190" s="54"/>
+    </row>
+    <row r="191" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="36">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="D191" s="37"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="39"/>
+      <c r="G191" s="39"/>
+      <c r="H191" s="40"/>
+      <c r="I191" s="39"/>
+      <c r="J191" s="39"/>
+      <c r="K191" s="41"/>
+      <c r="L191" s="42"/>
+      <c r="M191" s="43"/>
+      <c r="N191" s="36"/>
+      <c r="O191" s="32"/>
+      <c r="P191" s="26"/>
+      <c r="Q191" s="26"/>
+      <c r="R191" s="26"/>
+      <c r="T191" s="54"/>
+    </row>
+    <row r="192" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="36">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="D192" s="37"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="39"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="40"/>
+      <c r="I192" s="39"/>
+      <c r="J192" s="39"/>
+      <c r="K192" s="41"/>
+      <c r="L192" s="42"/>
+      <c r="M192" s="43"/>
+      <c r="N192" s="36"/>
+      <c r="O192" s="32"/>
+      <c r="P192" s="26"/>
+      <c r="Q192" s="26"/>
+      <c r="R192" s="26"/>
+      <c r="T192" s="54"/>
+    </row>
+    <row r="193" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="36">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="D193" s="37"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="39"/>
+      <c r="G193" s="39"/>
+      <c r="H193" s="40"/>
+      <c r="I193" s="39"/>
+      <c r="J193" s="39"/>
+      <c r="K193" s="41"/>
+      <c r="L193" s="42"/>
+      <c r="M193" s="43"/>
+      <c r="N193" s="36"/>
+      <c r="O193" s="32"/>
+      <c r="P193" s="26"/>
+      <c r="Q193" s="26"/>
+      <c r="R193" s="26"/>
+      <c r="T193" s="54"/>
+    </row>
+    <row r="194" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="36">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="D194" s="37"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="39"/>
+      <c r="G194" s="39"/>
+      <c r="H194" s="40"/>
+      <c r="I194" s="39"/>
+      <c r="J194" s="39"/>
+      <c r="K194" s="41"/>
+      <c r="L194" s="42"/>
+      <c r="M194" s="43"/>
+      <c r="N194" s="36"/>
+      <c r="O194" s="32"/>
+      <c r="P194" s="26"/>
+      <c r="Q194" s="26"/>
+      <c r="R194" s="26"/>
+      <c r="T194" s="54"/>
+    </row>
+    <row r="195" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="36">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="D195" s="37"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="39"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="40"/>
+      <c r="I195" s="39"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="41"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="43"/>
+      <c r="N195" s="36"/>
+      <c r="O195" s="32"/>
+      <c r="P195" s="26"/>
+      <c r="Q195" s="26"/>
+      <c r="R195" s="26"/>
+      <c r="T195" s="54"/>
+    </row>
+    <row r="196" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="36">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="D196" s="37"/>
+      <c r="E196" s="38"/>
+      <c r="F196" s="39"/>
+      <c r="G196" s="39"/>
+      <c r="H196" s="40"/>
+      <c r="I196" s="39"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="41"/>
+      <c r="L196" s="42"/>
+      <c r="M196" s="43"/>
+      <c r="N196" s="36"/>
+      <c r="O196" s="32"/>
+      <c r="P196" s="26"/>
+      <c r="Q196" s="26"/>
+      <c r="R196" s="26"/>
+      <c r="T196" s="54"/>
+    </row>
+    <row r="197" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="36">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="D197" s="37"/>
+      <c r="E197" s="38"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="40"/>
+      <c r="I197" s="39"/>
+      <c r="J197" s="39"/>
+      <c r="K197" s="41"/>
+      <c r="L197" s="42"/>
+      <c r="M197" s="43"/>
+      <c r="N197" s="36"/>
+      <c r="O197" s="32"/>
+      <c r="P197" s="26"/>
+      <c r="Q197" s="26"/>
+      <c r="R197" s="26"/>
+      <c r="T197" s="54"/>
+    </row>
+    <row r="198" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C198" s="36">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+      <c r="D198" s="37"/>
+      <c r="E198" s="38"/>
+      <c r="F198" s="39"/>
+      <c r="G198" s="39"/>
+      <c r="H198" s="40"/>
+      <c r="I198" s="39"/>
+      <c r="J198" s="39"/>
+      <c r="K198" s="41"/>
+      <c r="L198" s="42"/>
+      <c r="M198" s="43"/>
+      <c r="N198" s="36"/>
+      <c r="O198" s="32"/>
+      <c r="P198" s="26"/>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="T198" s="54"/>
+    </row>
+    <row r="199" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C199" s="36">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="D199" s="37"/>
+      <c r="E199" s="38"/>
+      <c r="F199" s="39"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="40"/>
+      <c r="I199" s="39"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="41"/>
+      <c r="L199" s="42"/>
+      <c r="M199" s="43"/>
+      <c r="N199" s="36"/>
+      <c r="O199" s="32"/>
+      <c r="P199" s="26"/>
+      <c r="Q199" s="26"/>
+      <c r="R199" s="26"/>
+      <c r="T199" s="54"/>
+    </row>
+    <row r="200" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C200" s="36">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="D200" s="37"/>
+      <c r="E200" s="38"/>
+      <c r="F200" s="39"/>
+      <c r="G200" s="39"/>
+      <c r="H200" s="40"/>
+      <c r="I200" s="39"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="41"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="43"/>
+      <c r="N200" s="36"/>
+      <c r="O200" s="32"/>
+      <c r="P200" s="26"/>
+      <c r="Q200" s="26"/>
+      <c r="R200" s="26"/>
+      <c r="T200" s="54"/>
+    </row>
+    <row r="201" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="36">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="D201" s="37"/>
+      <c r="E201" s="38"/>
+      <c r="F201" s="39"/>
+      <c r="G201" s="39"/>
+      <c r="H201" s="40"/>
+      <c r="I201" s="39"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="41"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="43"/>
+      <c r="N201" s="36"/>
+      <c r="O201" s="32"/>
+      <c r="P201" s="26"/>
+      <c r="Q201" s="26"/>
+      <c r="R201" s="26"/>
+      <c r="T201" s="54"/>
+    </row>
+    <row r="202" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="36">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="D202" s="37"/>
+      <c r="E202" s="38"/>
+      <c r="F202" s="39"/>
+      <c r="G202" s="39"/>
+      <c r="H202" s="40"/>
+      <c r="I202" s="39"/>
+      <c r="J202" s="39"/>
+      <c r="K202" s="41"/>
+      <c r="L202" s="42"/>
+      <c r="M202" s="43"/>
+      <c r="N202" s="36"/>
+      <c r="O202" s="32"/>
+      <c r="P202" s="26"/>
+      <c r="Q202" s="26"/>
+      <c r="R202" s="26"/>
+      <c r="T202" s="54"/>
+    </row>
+    <row r="203" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C203" s="36">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="D203" s="37"/>
+      <c r="E203" s="38"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="39"/>
+      <c r="H203" s="40"/>
+      <c r="I203" s="39"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="41"/>
+      <c r="L203" s="42"/>
+      <c r="M203" s="43"/>
+      <c r="N203" s="36"/>
+      <c r="O203" s="32"/>
+      <c r="P203" s="26"/>
+      <c r="Q203" s="26"/>
+      <c r="R203" s="26"/>
+      <c r="T203" s="54"/>
+    </row>
+    <row r="204" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="36">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="D204" s="37"/>
+      <c r="E204" s="38"/>
+      <c r="F204" s="39"/>
+      <c r="G204" s="39"/>
+      <c r="H204" s="40"/>
+      <c r="I204" s="39"/>
+      <c r="J204" s="39"/>
+      <c r="K204" s="41"/>
+      <c r="L204" s="42"/>
+      <c r="M204" s="43"/>
+      <c r="N204" s="36"/>
+      <c r="O204" s="32"/>
+      <c r="P204" s="26"/>
+      <c r="Q204" s="26"/>
+      <c r="R204" s="26"/>
+      <c r="T204" s="54"/>
+    </row>
+    <row r="205" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C205" s="36">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="D205" s="37"/>
+      <c r="E205" s="38"/>
+      <c r="F205" s="39"/>
+      <c r="G205" s="39"/>
+      <c r="H205" s="40"/>
+      <c r="I205" s="39"/>
+      <c r="J205" s="39"/>
+      <c r="K205" s="41"/>
+      <c r="L205" s="42"/>
+      <c r="M205" s="43"/>
+      <c r="N205" s="36"/>
+      <c r="O205" s="32"/>
+      <c r="P205" s="26"/>
+      <c r="Q205" s="26"/>
+      <c r="R205" s="26"/>
+      <c r="T205" s="54"/>
+    </row>
+    <row r="206" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C206" s="36">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="D206" s="37"/>
+      <c r="E206" s="38"/>
+      <c r="F206" s="39"/>
+      <c r="G206" s="39"/>
+      <c r="H206" s="40"/>
+      <c r="I206" s="39"/>
+      <c r="J206" s="39"/>
+      <c r="K206" s="41"/>
+      <c r="L206" s="42"/>
+      <c r="M206" s="43"/>
+      <c r="N206" s="36"/>
+      <c r="O206" s="32"/>
+      <c r="P206" s="26"/>
+      <c r="Q206" s="26"/>
+      <c r="R206" s="26"/>
+      <c r="T206" s="54"/>
+    </row>
+    <row r="207" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C207" s="36">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="D207" s="37"/>
+      <c r="E207" s="38"/>
+      <c r="F207" s="39"/>
+      <c r="G207" s="39"/>
+      <c r="H207" s="40"/>
+      <c r="I207" s="39"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="41"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="43"/>
+      <c r="N207" s="36"/>
+      <c r="O207" s="32"/>
+      <c r="P207" s="26"/>
+      <c r="Q207" s="26"/>
+      <c r="R207" s="26"/>
+      <c r="T207" s="54"/>
+    </row>
+    <row r="208" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C208" s="36">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
+      <c r="D208" s="37"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="39"/>
+      <c r="G208" s="39"/>
+      <c r="H208" s="40"/>
+      <c r="I208" s="39"/>
+      <c r="J208" s="39"/>
+      <c r="K208" s="41"/>
+      <c r="L208" s="42"/>
+      <c r="M208" s="43"/>
+      <c r="N208" s="36"/>
+      <c r="O208" s="32"/>
+      <c r="P208" s="26"/>
+      <c r="Q208" s="26"/>
+      <c r="R208" s="26"/>
+      <c r="T208" s="54"/>
+    </row>
+    <row r="209" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C209" s="36">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="D209" s="37"/>
+      <c r="E209" s="38"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="39"/>
+      <c r="H209" s="40"/>
+      <c r="I209" s="39"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="41"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="43"/>
+      <c r="N209" s="36"/>
+      <c r="O209" s="32"/>
+      <c r="P209" s="26"/>
+      <c r="Q209" s="26"/>
+      <c r="R209" s="26"/>
+      <c r="T209" s="54"/>
+    </row>
+    <row r="210" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C210" s="36">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="D210" s="37"/>
+      <c r="E210" s="38"/>
+      <c r="F210" s="39"/>
+      <c r="G210" s="39"/>
+      <c r="H210" s="40"/>
+      <c r="I210" s="39"/>
+      <c r="J210" s="39"/>
+      <c r="K210" s="41"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="43"/>
+      <c r="N210" s="36"/>
+      <c r="O210" s="32"/>
+      <c r="P210" s="26"/>
+      <c r="Q210" s="26"/>
+      <c r="R210" s="26"/>
+      <c r="T210" s="54"/>
+    </row>
+    <row r="211" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C211" s="36">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="D211" s="37"/>
+      <c r="E211" s="38"/>
+      <c r="F211" s="39"/>
+      <c r="G211" s="39"/>
+      <c r="H211" s="40"/>
+      <c r="I211" s="39"/>
+      <c r="J211" s="39"/>
+      <c r="K211" s="41"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="43"/>
+      <c r="N211" s="36"/>
+      <c r="O211" s="32"/>
+      <c r="P211" s="26"/>
+      <c r="Q211" s="26"/>
+      <c r="R211" s="26"/>
+      <c r="T211" s="54"/>
+    </row>
+    <row r="212" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C212" s="36">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="D212" s="37"/>
+      <c r="E212" s="38"/>
+      <c r="F212" s="39"/>
+      <c r="G212" s="39"/>
+      <c r="H212" s="40"/>
+      <c r="I212" s="39"/>
+      <c r="J212" s="39"/>
+      <c r="K212" s="41"/>
+      <c r="L212" s="42"/>
+      <c r="M212" s="43"/>
+      <c r="N212" s="36"/>
+      <c r="O212" s="32"/>
+      <c r="P212" s="26"/>
+      <c r="Q212" s="26"/>
+      <c r="R212" s="26"/>
+      <c r="T212" s="54"/>
+    </row>
+    <row r="213" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C213" s="36">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="D213" s="37"/>
+      <c r="E213" s="38"/>
+      <c r="F213" s="39"/>
+      <c r="G213" s="39"/>
+      <c r="H213" s="40"/>
+      <c r="I213" s="39"/>
+      <c r="J213" s="39"/>
+      <c r="K213" s="41"/>
+      <c r="L213" s="42"/>
+      <c r="M213" s="43"/>
+      <c r="N213" s="36"/>
+      <c r="O213" s="32"/>
+      <c r="P213" s="26"/>
+      <c r="Q213" s="26"/>
+      <c r="R213" s="26"/>
+      <c r="T213" s="54"/>
+    </row>
+    <row r="214" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C214" s="36">
+        <f t="shared" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="D214" s="37"/>
+      <c r="E214" s="38"/>
+      <c r="F214" s="39"/>
+      <c r="G214" s="39"/>
+      <c r="H214" s="40"/>
+      <c r="I214" s="39"/>
+      <c r="J214" s="39"/>
+      <c r="K214" s="41"/>
+      <c r="L214" s="42"/>
+      <c r="M214" s="43"/>
+      <c r="N214" s="36"/>
+      <c r="O214" s="32"/>
+      <c r="P214" s="26"/>
+      <c r="Q214" s="26"/>
+      <c r="R214" s="26"/>
+      <c r="T214" s="54"/>
+    </row>
+    <row r="215" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C215" s="36">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="D215" s="37"/>
+      <c r="E215" s="38"/>
+      <c r="F215" s="39"/>
+      <c r="G215" s="39"/>
+      <c r="H215" s="40"/>
+      <c r="I215" s="39"/>
+      <c r="J215" s="39"/>
+      <c r="K215" s="41"/>
+      <c r="L215" s="42"/>
+      <c r="M215" s="43"/>
+      <c r="N215" s="36"/>
+      <c r="O215" s="32"/>
+      <c r="P215" s="26"/>
+      <c r="Q215" s="26"/>
+      <c r="R215" s="26"/>
+      <c r="T215" s="54"/>
+    </row>
+    <row r="216" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C216" s="36">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="D216" s="37"/>
+      <c r="E216" s="38"/>
+      <c r="F216" s="39"/>
+      <c r="G216" s="39"/>
+      <c r="H216" s="40"/>
+      <c r="I216" s="39"/>
+      <c r="J216" s="39"/>
+      <c r="K216" s="41"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="43"/>
+      <c r="N216" s="36"/>
+      <c r="O216" s="32"/>
+      <c r="P216" s="26"/>
+      <c r="Q216" s="26"/>
+      <c r="R216" s="26"/>
+      <c r="T216" s="54"/>
+    </row>
+    <row r="217" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="36">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="D217" s="37"/>
+      <c r="E217" s="38"/>
+      <c r="F217" s="39"/>
+      <c r="G217" s="39"/>
+      <c r="H217" s="40"/>
+      <c r="I217" s="39"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="41"/>
+      <c r="L217" s="42"/>
+      <c r="M217" s="43"/>
+      <c r="N217" s="36"/>
+      <c r="O217" s="32"/>
+      <c r="P217" s="26"/>
+      <c r="Q217" s="26"/>
+      <c r="R217" s="26"/>
+      <c r="T217" s="54"/>
+    </row>
+    <row r="218" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C218" s="36">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="D218" s="37"/>
+      <c r="E218" s="38"/>
+      <c r="F218" s="39"/>
+      <c r="G218" s="39"/>
+      <c r="H218" s="40"/>
+      <c r="I218" s="39"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="41"/>
+      <c r="L218" s="42"/>
+      <c r="M218" s="43"/>
+      <c r="N218" s="36"/>
+      <c r="O218" s="32"/>
+      <c r="P218" s="26"/>
+      <c r="Q218" s="26"/>
+      <c r="R218" s="26"/>
+      <c r="T218" s="54"/>
+    </row>
+    <row r="219" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C219" s="36">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="D219" s="37"/>
+      <c r="E219" s="38"/>
+      <c r="F219" s="39"/>
+      <c r="G219" s="39"/>
+      <c r="H219" s="40"/>
+      <c r="I219" s="39"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="41"/>
+      <c r="L219" s="42"/>
+      <c r="M219" s="43"/>
+      <c r="N219" s="36"/>
+      <c r="O219" s="32"/>
+      <c r="P219" s="26"/>
+      <c r="Q219" s="26"/>
+      <c r="R219" s="26"/>
+      <c r="T219" s="54"/>
+    </row>
+    <row r="220" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="36">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="D220" s="37"/>
+      <c r="E220" s="38"/>
+      <c r="F220" s="39"/>
+      <c r="G220" s="39"/>
+      <c r="H220" s="40"/>
+      <c r="I220" s="39"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="41"/>
+      <c r="L220" s="42"/>
+      <c r="M220" s="43"/>
+      <c r="N220" s="36"/>
+      <c r="O220" s="32"/>
+      <c r="P220" s="26"/>
+      <c r="Q220" s="26"/>
+      <c r="R220" s="26"/>
+      <c r="T220" s="54"/>
+    </row>
+    <row r="221" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="36">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="D221" s="37"/>
+      <c r="E221" s="38"/>
+      <c r="F221" s="39"/>
+      <c r="G221" s="39"/>
+      <c r="H221" s="40"/>
+      <c r="I221" s="39"/>
+      <c r="J221" s="39"/>
+      <c r="K221" s="41"/>
+      <c r="L221" s="42"/>
+      <c r="M221" s="43"/>
+      <c r="N221" s="36"/>
+      <c r="O221" s="32"/>
+      <c r="P221" s="26"/>
+      <c r="Q221" s="26"/>
+      <c r="R221" s="26"/>
+      <c r="T221" s="54"/>
+    </row>
+    <row r="222" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C222" s="36">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="D222" s="37"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="39"/>
+      <c r="G222" s="39"/>
+      <c r="H222" s="40"/>
+      <c r="I222" s="39"/>
+      <c r="J222" s="39"/>
+      <c r="K222" s="41"/>
+      <c r="L222" s="42"/>
+      <c r="M222" s="43"/>
+      <c r="N222" s="36"/>
+      <c r="O222" s="32"/>
+      <c r="P222" s="26"/>
+      <c r="Q222" s="26"/>
+      <c r="R222" s="26"/>
+      <c r="T222" s="54"/>
+    </row>
+    <row r="223" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="36">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="D223" s="37"/>
+      <c r="E223" s="38"/>
+      <c r="F223" s="39"/>
+      <c r="G223" s="39"/>
+      <c r="H223" s="40"/>
+      <c r="I223" s="39"/>
+      <c r="J223" s="39"/>
+      <c r="K223" s="41"/>
+      <c r="L223" s="42"/>
+      <c r="M223" s="43"/>
+      <c r="N223" s="36"/>
+      <c r="O223" s="32"/>
+      <c r="P223" s="26"/>
+      <c r="Q223" s="26"/>
+      <c r="R223" s="26"/>
+      <c r="T223" s="54"/>
+    </row>
+    <row r="224" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C224" s="36">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="D224" s="37"/>
+      <c r="E224" s="38"/>
+      <c r="F224" s="39"/>
+      <c r="G224" s="39"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="39"/>
+      <c r="J224" s="39"/>
+      <c r="K224" s="41"/>
+      <c r="L224" s="42"/>
+      <c r="M224" s="43"/>
+      <c r="N224" s="36"/>
+      <c r="O224" s="32"/>
+      <c r="P224" s="26"/>
+      <c r="Q224" s="26"/>
+      <c r="R224" s="26"/>
+      <c r="T224" s="54"/>
+    </row>
+    <row r="225" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C225" s="36">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="D225" s="37"/>
+      <c r="E225" s="38"/>
+      <c r="F225" s="39"/>
+      <c r="G225" s="39"/>
+      <c r="H225" s="40"/>
+      <c r="I225" s="39"/>
+      <c r="J225" s="39"/>
+      <c r="K225" s="41"/>
+      <c r="L225" s="42"/>
+      <c r="M225" s="43"/>
+      <c r="N225" s="36"/>
+      <c r="O225" s="32"/>
+      <c r="P225" s="26"/>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="T225" s="54"/>
+    </row>
+    <row r="226" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C226" s="36">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="D226" s="37"/>
+      <c r="E226" s="38"/>
+      <c r="F226" s="39"/>
+      <c r="G226" s="39"/>
+      <c r="H226" s="40"/>
+      <c r="I226" s="39"/>
+      <c r="J226" s="39"/>
+      <c r="K226" s="41"/>
+      <c r="L226" s="42"/>
+      <c r="M226" s="43"/>
+      <c r="N226" s="36"/>
+      <c r="O226" s="32"/>
+      <c r="P226" s="26"/>
+      <c r="Q226" s="26"/>
+      <c r="R226" s="26"/>
+      <c r="T226" s="54"/>
+    </row>
+    <row r="227" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C227" s="36">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="D227" s="37"/>
+      <c r="E227" s="38"/>
+      <c r="F227" s="39"/>
+      <c r="G227" s="39"/>
+      <c r="H227" s="40"/>
+      <c r="I227" s="39"/>
+      <c r="J227" s="39"/>
+      <c r="K227" s="41"/>
+      <c r="L227" s="42"/>
+      <c r="M227" s="43"/>
+      <c r="N227" s="36"/>
+      <c r="O227" s="32"/>
+      <c r="P227" s="26"/>
+      <c r="Q227" s="26"/>
+      <c r="R227" s="26"/>
+      <c r="T227" s="54"/>
+    </row>
+    <row r="228" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C228" s="36">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="D228" s="37"/>
+      <c r="E228" s="38"/>
+      <c r="F228" s="39"/>
+      <c r="G228" s="39"/>
+      <c r="H228" s="40"/>
+      <c r="I228" s="39"/>
+      <c r="J228" s="39"/>
+      <c r="K228" s="41"/>
+      <c r="L228" s="42"/>
+      <c r="M228" s="43"/>
+      <c r="N228" s="36"/>
+      <c r="O228" s="32"/>
+      <c r="P228" s="26"/>
+      <c r="Q228" s="26"/>
+      <c r="R228" s="26"/>
+      <c r="T228" s="54"/>
+    </row>
+    <row r="229" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C229" s="36">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="D229" s="37"/>
+      <c r="E229" s="38"/>
+      <c r="F229" s="39"/>
+      <c r="G229" s="39"/>
+      <c r="H229" s="40"/>
+      <c r="I229" s="39"/>
+      <c r="J229" s="39"/>
+      <c r="K229" s="41"/>
+      <c r="L229" s="42"/>
+      <c r="M229" s="43"/>
+      <c r="N229" s="36"/>
+      <c r="O229" s="32"/>
+      <c r="P229" s="26"/>
+      <c r="Q229" s="26"/>
+      <c r="R229" s="26"/>
+      <c r="T229" s="54"/>
+    </row>
+    <row r="230" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C230" s="36">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="D230" s="37"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="39"/>
+      <c r="G230" s="39"/>
+      <c r="H230" s="40"/>
+      <c r="I230" s="39"/>
+      <c r="J230" s="39"/>
+      <c r="K230" s="41"/>
+      <c r="L230" s="42"/>
+      <c r="M230" s="43"/>
+      <c r="N230" s="36"/>
+      <c r="O230" s="32"/>
+      <c r="P230" s="26"/>
+      <c r="Q230" s="26"/>
+      <c r="R230" s="26"/>
+      <c r="T230" s="54"/>
+    </row>
+    <row r="231" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="36">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="D231" s="37"/>
+      <c r="E231" s="38"/>
+      <c r="F231" s="39"/>
+      <c r="G231" s="39"/>
+      <c r="H231" s="40"/>
+      <c r="I231" s="39"/>
+      <c r="J231" s="39"/>
+      <c r="K231" s="41"/>
+      <c r="L231" s="42"/>
+      <c r="M231" s="43"/>
+      <c r="N231" s="36"/>
+      <c r="O231" s="32"/>
+      <c r="P231" s="26"/>
+      <c r="Q231" s="26"/>
+      <c r="R231" s="26"/>
+      <c r="T231" s="54"/>
+    </row>
+    <row r="232" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C232" s="36">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="D232" s="37"/>
+      <c r="E232" s="38"/>
+      <c r="F232" s="39"/>
+      <c r="G232" s="39"/>
+      <c r="H232" s="40"/>
+      <c r="I232" s="39"/>
+      <c r="J232" s="39"/>
+      <c r="K232" s="41"/>
+      <c r="L232" s="42"/>
+      <c r="M232" s="43"/>
+      <c r="N232" s="36"/>
+      <c r="O232" s="32"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="T232" s="54"/>
+    </row>
+    <row r="233" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C233" s="36">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="D233" s="37"/>
+      <c r="E233" s="38"/>
+      <c r="F233" s="39"/>
+      <c r="G233" s="39"/>
+      <c r="H233" s="40"/>
+      <c r="I233" s="39"/>
+      <c r="J233" s="39"/>
+      <c r="K233" s="41"/>
+      <c r="L233" s="42"/>
+      <c r="M233" s="43"/>
+      <c r="N233" s="36"/>
+      <c r="O233" s="32"/>
+      <c r="P233" s="26"/>
+      <c r="Q233" s="26"/>
+      <c r="R233" s="26"/>
+      <c r="T233" s="54"/>
+    </row>
+    <row r="234" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C234" s="36">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="D234" s="37"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="39"/>
+      <c r="G234" s="39"/>
+      <c r="H234" s="40"/>
+      <c r="I234" s="39"/>
+      <c r="J234" s="39"/>
+      <c r="K234" s="41"/>
+      <c r="L234" s="42"/>
+      <c r="M234" s="43"/>
+      <c r="N234" s="36"/>
+      <c r="O234" s="32"/>
+      <c r="P234" s="26"/>
+      <c r="Q234" s="26"/>
+      <c r="R234" s="26"/>
+      <c r="T234" s="54"/>
+    </row>
+    <row r="235" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C235" s="36">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="D235" s="37"/>
+      <c r="E235" s="38"/>
+      <c r="F235" s="39"/>
+      <c r="G235" s="39"/>
+      <c r="H235" s="40"/>
+      <c r="I235" s="39"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="41"/>
+      <c r="L235" s="42"/>
+      <c r="M235" s="43"/>
+      <c r="N235" s="36"/>
+      <c r="O235" s="32"/>
+      <c r="P235" s="26"/>
+      <c r="Q235" s="26"/>
+      <c r="R235" s="26"/>
+      <c r="T235" s="54"/>
+    </row>
+    <row r="236" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C236" s="36">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="D236" s="37"/>
+      <c r="E236" s="38"/>
+      <c r="F236" s="39"/>
+      <c r="G236" s="39"/>
+      <c r="H236" s="40"/>
+      <c r="I236" s="39"/>
+      <c r="J236" s="39"/>
+      <c r="K236" s="41"/>
+      <c r="L236" s="42"/>
+      <c r="M236" s="43"/>
+      <c r="N236" s="36"/>
+      <c r="O236" s="32"/>
+      <c r="P236" s="26"/>
+      <c r="Q236" s="26"/>
+      <c r="R236" s="26"/>
+      <c r="T236" s="54"/>
+    </row>
+    <row r="237" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C237" s="36">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="D237" s="37"/>
+      <c r="E237" s="38"/>
+      <c r="F237" s="39"/>
+      <c r="G237" s="39"/>
+      <c r="H237" s="40"/>
+      <c r="I237" s="39"/>
+      <c r="J237" s="39"/>
+      <c r="K237" s="41"/>
+      <c r="L237" s="42"/>
+      <c r="M237" s="43"/>
+      <c r="N237" s="36"/>
+      <c r="O237" s="32"/>
+      <c r="P237" s="26"/>
+      <c r="Q237" s="26"/>
+      <c r="R237" s="26"/>
+      <c r="T237" s="54"/>
+    </row>
+    <row r="238" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C238" s="36">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="D238" s="37"/>
+      <c r="E238" s="38"/>
+      <c r="F238" s="39"/>
+      <c r="G238" s="39"/>
+      <c r="H238" s="40"/>
+      <c r="I238" s="39"/>
+      <c r="J238" s="39"/>
+      <c r="K238" s="41"/>
+      <c r="L238" s="42"/>
+      <c r="M238" s="43"/>
+      <c r="N238" s="36"/>
+      <c r="O238" s="32"/>
+      <c r="P238" s="26"/>
+      <c r="Q238" s="26"/>
+      <c r="R238" s="26"/>
+      <c r="T238" s="54"/>
+    </row>
+    <row r="239" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C239" s="36">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="D239" s="37"/>
+      <c r="E239" s="38"/>
+      <c r="F239" s="39"/>
+      <c r="G239" s="39"/>
+      <c r="H239" s="40"/>
+      <c r="I239" s="39"/>
+      <c r="J239" s="39"/>
+      <c r="K239" s="41"/>
+      <c r="L239" s="42"/>
+      <c r="M239" s="43"/>
+      <c r="N239" s="36"/>
+      <c r="O239" s="32"/>
+      <c r="P239" s="26"/>
+      <c r="Q239" s="26"/>
+      <c r="R239" s="26"/>
+      <c r="T239" s="54"/>
+    </row>
+    <row r="240" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C240" s="36">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="D240" s="37"/>
+      <c r="E240" s="38"/>
+      <c r="F240" s="39"/>
+      <c r="G240" s="39"/>
+      <c r="H240" s="40"/>
+      <c r="I240" s="39"/>
+      <c r="J240" s="39"/>
+      <c r="K240" s="41"/>
+      <c r="L240" s="42"/>
+      <c r="M240" s="43"/>
+      <c r="N240" s="36"/>
+      <c r="O240" s="32"/>
+      <c r="P240" s="26"/>
+      <c r="Q240" s="26"/>
+      <c r="R240" s="26"/>
+      <c r="T240" s="54"/>
+    </row>
+    <row r="241" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C241" s="36">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="D241" s="37"/>
+      <c r="E241" s="38"/>
+      <c r="F241" s="39"/>
+      <c r="G241" s="39"/>
+      <c r="H241" s="40"/>
+      <c r="I241" s="39"/>
+      <c r="J241" s="39"/>
+      <c r="K241" s="41"/>
+      <c r="L241" s="42"/>
+      <c r="M241" s="43"/>
+      <c r="N241" s="36"/>
+      <c r="O241" s="32"/>
+      <c r="P241" s="26"/>
+      <c r="Q241" s="26"/>
+      <c r="R241" s="26"/>
+      <c r="T241" s="54"/>
+    </row>
+    <row r="242" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C242" s="36">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="D242" s="37"/>
+      <c r="E242" s="38"/>
+      <c r="F242" s="39"/>
+      <c r="G242" s="39"/>
+      <c r="H242" s="40"/>
+      <c r="I242" s="39"/>
+      <c r="J242" s="39"/>
+      <c r="K242" s="41"/>
+      <c r="L242" s="42"/>
+      <c r="M242" s="43"/>
+      <c r="N242" s="36"/>
+      <c r="O242" s="32"/>
+      <c r="P242" s="26"/>
+      <c r="Q242" s="26"/>
+      <c r="R242" s="26"/>
+      <c r="T242" s="54"/>
+    </row>
+    <row r="243" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C243" s="36">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="D243" s="37"/>
+      <c r="E243" s="38"/>
+      <c r="F243" s="39"/>
+      <c r="G243" s="39"/>
+      <c r="H243" s="40"/>
+      <c r="I243" s="39"/>
+      <c r="J243" s="39"/>
+      <c r="K243" s="41"/>
+      <c r="L243" s="42"/>
+      <c r="M243" s="43"/>
+      <c r="N243" s="36"/>
+      <c r="O243" s="32"/>
+      <c r="P243" s="26"/>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26"/>
+      <c r="T243" s="54"/>
+    </row>
+    <row r="244" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C244" s="36">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="D244" s="37"/>
+      <c r="E244" s="38"/>
+      <c r="F244" s="39"/>
+      <c r="G244" s="39"/>
+      <c r="H244" s="40"/>
+      <c r="I244" s="39"/>
+      <c r="J244" s="39"/>
+      <c r="K244" s="41"/>
+      <c r="L244" s="42"/>
+      <c r="M244" s="43"/>
+      <c r="N244" s="36"/>
+      <c r="O244" s="32"/>
+      <c r="P244" s="26"/>
+      <c r="Q244" s="26"/>
+      <c r="R244" s="26"/>
+      <c r="T244" s="54"/>
+    </row>
+    <row r="245" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C245" s="36">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="D245" s="37"/>
+      <c r="E245" s="38"/>
+      <c r="F245" s="39"/>
+      <c r="G245" s="39"/>
+      <c r="H245" s="40"/>
+      <c r="I245" s="39"/>
+      <c r="J245" s="39"/>
+      <c r="K245" s="41"/>
+      <c r="L245" s="42"/>
+      <c r="M245" s="43"/>
+      <c r="N245" s="36"/>
+      <c r="O245" s="32"/>
+      <c r="P245" s="26"/>
+      <c r="Q245" s="26"/>
+      <c r="R245" s="26"/>
+      <c r="T245" s="54"/>
+    </row>
+    <row r="246" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C246" s="36">
+        <f t="shared" si="4"/>
+        <v>239</v>
+      </c>
+      <c r="D246" s="37"/>
+      <c r="E246" s="38"/>
+      <c r="F246" s="39"/>
+      <c r="G246" s="39"/>
+      <c r="H246" s="40"/>
+      <c r="I246" s="39"/>
+      <c r="J246" s="39"/>
+      <c r="K246" s="41"/>
+      <c r="L246" s="42"/>
+      <c r="M246" s="43"/>
+      <c r="N246" s="36"/>
+      <c r="O246" s="32"/>
+      <c r="P246" s="26"/>
+      <c r="Q246" s="26"/>
+      <c r="R246" s="26"/>
+      <c r="T246" s="54"/>
+    </row>
+    <row r="247" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C247" s="36">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="D247" s="37"/>
+      <c r="E247" s="38"/>
+      <c r="F247" s="39"/>
+      <c r="G247" s="39"/>
+      <c r="H247" s="40"/>
+      <c r="I247" s="39"/>
+      <c r="J247" s="39"/>
+      <c r="K247" s="41"/>
+      <c r="L247" s="42"/>
+      <c r="M247" s="43"/>
+      <c r="N247" s="36"/>
+      <c r="O247" s="32"/>
+      <c r="P247" s="26"/>
+      <c r="Q247" s="26"/>
+      <c r="R247" s="26"/>
+      <c r="T247" s="54"/>
+    </row>
+    <row r="248" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C248" s="36">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="D248" s="37"/>
+      <c r="E248" s="38"/>
+      <c r="F248" s="39"/>
+      <c r="G248" s="39"/>
+      <c r="H248" s="40"/>
+      <c r="I248" s="39"/>
+      <c r="J248" s="39"/>
+      <c r="K248" s="41"/>
+      <c r="L248" s="42"/>
+      <c r="M248" s="43"/>
+      <c r="N248" s="36"/>
+      <c r="O248" s="32"/>
+      <c r="P248" s="26"/>
+      <c r="Q248" s="26"/>
+      <c r="R248" s="26"/>
+      <c r="T248" s="54"/>
+    </row>
+    <row r="249" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C249" s="36">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="D249" s="37"/>
+      <c r="E249" s="38"/>
+      <c r="F249" s="39"/>
+      <c r="G249" s="39"/>
+      <c r="H249" s="40"/>
+      <c r="I249" s="39"/>
+      <c r="J249" s="39"/>
+      <c r="K249" s="41"/>
+      <c r="L249" s="42"/>
+      <c r="M249" s="43"/>
+      <c r="N249" s="36"/>
+      <c r="O249" s="32"/>
+      <c r="P249" s="26"/>
+      <c r="Q249" s="26"/>
+      <c r="R249" s="26"/>
+      <c r="T249" s="54"/>
+    </row>
+    <row r="250" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C250" s="36">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="D250" s="37"/>
+      <c r="E250" s="38"/>
+      <c r="F250" s="39"/>
+      <c r="G250" s="39"/>
+      <c r="H250" s="40"/>
+      <c r="I250" s="39"/>
+      <c r="J250" s="39"/>
+      <c r="K250" s="41"/>
+      <c r="L250" s="42"/>
+      <c r="M250" s="43"/>
+      <c r="N250" s="36"/>
+      <c r="O250" s="32"/>
+      <c r="P250" s="26"/>
+      <c r="Q250" s="26"/>
+      <c r="R250" s="26"/>
+      <c r="T250" s="54"/>
+    </row>
+    <row r="251" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C251" s="36">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="D251" s="37"/>
+      <c r="E251" s="38"/>
+      <c r="F251" s="39"/>
+      <c r="G251" s="39"/>
+      <c r="H251" s="40"/>
+      <c r="I251" s="39"/>
+      <c r="J251" s="39"/>
+      <c r="K251" s="41"/>
+      <c r="L251" s="42"/>
+      <c r="M251" s="43"/>
+      <c r="N251" s="36"/>
+      <c r="O251" s="32"/>
+      <c r="P251" s="26"/>
+      <c r="Q251" s="26"/>
+      <c r="R251" s="26"/>
+      <c r="T251" s="54"/>
+    </row>
+    <row r="252" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C252" s="36">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="D252" s="37"/>
+      <c r="E252" s="38"/>
+      <c r="F252" s="39"/>
+      <c r="G252" s="39"/>
+      <c r="H252" s="40"/>
+      <c r="I252" s="39"/>
+      <c r="J252" s="39"/>
+      <c r="K252" s="41"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="43"/>
+      <c r="N252" s="36"/>
+      <c r="O252" s="32"/>
+      <c r="P252" s="26"/>
+      <c r="Q252" s="26"/>
+      <c r="R252" s="26"/>
+      <c r="T252" s="54"/>
+    </row>
+    <row r="253" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C253" s="36">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="D253" s="37"/>
+      <c r="E253" s="38"/>
+      <c r="F253" s="39"/>
+      <c r="G253" s="39"/>
+      <c r="H253" s="40"/>
+      <c r="I253" s="39"/>
+      <c r="J253" s="39"/>
+      <c r="K253" s="41"/>
+      <c r="L253" s="42"/>
+      <c r="M253" s="43"/>
+      <c r="N253" s="36"/>
+      <c r="O253" s="32"/>
+      <c r="P253" s="26"/>
+      <c r="Q253" s="26"/>
+      <c r="R253" s="26"/>
+      <c r="T253" s="54"/>
+    </row>
+    <row r="254" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C254" s="36">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="D254" s="37"/>
+      <c r="E254" s="38"/>
+      <c r="F254" s="39"/>
+      <c r="G254" s="39"/>
+      <c r="H254" s="40"/>
+      <c r="I254" s="39"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="41"/>
+      <c r="L254" s="42"/>
+      <c r="M254" s="43"/>
+      <c r="N254" s="36"/>
+      <c r="O254" s="32"/>
+      <c r="P254" s="26"/>
+      <c r="Q254" s="26"/>
+      <c r="R254" s="26"/>
+      <c r="T254" s="54"/>
+    </row>
+    <row r="255" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C255" s="36">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="D255" s="37"/>
+      <c r="E255" s="38"/>
+      <c r="F255" s="39"/>
+      <c r="G255" s="39"/>
+      <c r="H255" s="40"/>
+      <c r="I255" s="39"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="41"/>
+      <c r="L255" s="42"/>
+      <c r="M255" s="43"/>
+      <c r="N255" s="36"/>
+      <c r="O255" s="32"/>
+      <c r="P255" s="26"/>
+      <c r="Q255" s="26"/>
+      <c r="R255" s="26"/>
+      <c r="T255" s="54"/>
+    </row>
+    <row r="256" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C256" s="36">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="D256" s="37"/>
+      <c r="E256" s="38"/>
+      <c r="F256" s="39"/>
+      <c r="G256" s="39"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="39"/>
+      <c r="J256" s="39"/>
+      <c r="K256" s="41"/>
+      <c r="L256" s="42"/>
+      <c r="M256" s="43"/>
+      <c r="N256" s="36"/>
+      <c r="O256" s="32"/>
+      <c r="P256" s="26"/>
+      <c r="Q256" s="26"/>
+      <c r="R256" s="26"/>
+      <c r="T256" s="54"/>
+    </row>
+    <row r="257" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C257" s="36">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="D257" s="37"/>
+      <c r="E257" s="38"/>
+      <c r="F257" s="39"/>
+      <c r="G257" s="39"/>
+      <c r="H257" s="40"/>
+      <c r="I257" s="39"/>
+      <c r="J257" s="39"/>
+      <c r="K257" s="41"/>
+      <c r="L257" s="42"/>
+      <c r="M257" s="43"/>
+      <c r="N257" s="36"/>
+      <c r="O257" s="32"/>
+      <c r="P257" s="26"/>
+      <c r="Q257" s="26"/>
+      <c r="R257" s="26"/>
+      <c r="T257" s="54"/>
+    </row>
+    <row r="258" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C258" s="36">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="D258" s="37"/>
+      <c r="E258" s="38"/>
+      <c r="F258" s="39"/>
+      <c r="G258" s="39"/>
+      <c r="H258" s="40"/>
+      <c r="I258" s="39"/>
+      <c r="J258" s="39"/>
+      <c r="K258" s="41"/>
+      <c r="L258" s="42"/>
+      <c r="M258" s="43"/>
+      <c r="N258" s="36"/>
+      <c r="O258" s="32"/>
+      <c r="P258" s="26"/>
+      <c r="Q258" s="26"/>
+      <c r="R258" s="26"/>
+      <c r="T258" s="54"/>
+    </row>
+    <row r="259" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C259" s="36">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="D259" s="37"/>
+      <c r="E259" s="38"/>
+      <c r="F259" s="39"/>
+      <c r="G259" s="39"/>
+      <c r="H259" s="40"/>
+      <c r="I259" s="39"/>
+      <c r="J259" s="39"/>
+      <c r="K259" s="41"/>
+      <c r="L259" s="42"/>
+      <c r="M259" s="43"/>
+      <c r="N259" s="36"/>
+      <c r="O259" s="32"/>
+      <c r="P259" s="26"/>
+      <c r="Q259" s="26"/>
+      <c r="R259" s="26"/>
+      <c r="T259" s="54"/>
+    </row>
+    <row r="260" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C260" s="36">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="D260" s="37"/>
+      <c r="E260" s="38"/>
+      <c r="F260" s="39"/>
+      <c r="G260" s="39"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="39"/>
+      <c r="J260" s="39"/>
+      <c r="K260" s="41"/>
+      <c r="L260" s="42"/>
+      <c r="M260" s="43"/>
+      <c r="N260" s="36"/>
+      <c r="O260" s="32"/>
+      <c r="P260" s="26"/>
+      <c r="Q260" s="26"/>
+      <c r="R260" s="26"/>
+      <c r="T260" s="54"/>
+    </row>
+    <row r="261" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C261" s="36">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="D261" s="37"/>
+      <c r="E261" s="38"/>
+      <c r="F261" s="39"/>
+      <c r="G261" s="39"/>
+      <c r="H261" s="40"/>
+      <c r="I261" s="39"/>
+      <c r="J261" s="39"/>
+      <c r="K261" s="41"/>
+      <c r="L261" s="42"/>
+      <c r="M261" s="43"/>
+      <c r="N261" s="36"/>
+      <c r="O261" s="32"/>
+      <c r="P261" s="26"/>
+      <c r="Q261" s="26"/>
+      <c r="R261" s="26"/>
+      <c r="T261" s="54"/>
+    </row>
+    <row r="262" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="36">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D262" s="37"/>
+      <c r="E262" s="38"/>
+      <c r="F262" s="39"/>
+      <c r="G262" s="39"/>
+      <c r="H262" s="40"/>
+      <c r="I262" s="39"/>
+      <c r="J262" s="39"/>
+      <c r="K262" s="41"/>
+      <c r="L262" s="42"/>
+      <c r="M262" s="43"/>
+      <c r="N262" s="36"/>
+      <c r="O262" s="32"/>
+      <c r="P262" s="26"/>
+      <c r="Q262" s="26"/>
+      <c r="R262" s="26"/>
+      <c r="T262" s="54"/>
+    </row>
+    <row r="263" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C263" s="36">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="D263" s="37"/>
+      <c r="E263" s="38"/>
+      <c r="F263" s="39"/>
+      <c r="G263" s="39"/>
+      <c r="H263" s="40"/>
+      <c r="I263" s="39"/>
+      <c r="J263" s="39"/>
+      <c r="K263" s="41"/>
+      <c r="L263" s="42"/>
+      <c r="M263" s="43"/>
+      <c r="N263" s="36"/>
+      <c r="O263" s="32"/>
+      <c r="P263" s="26"/>
+      <c r="Q263" s="26"/>
+      <c r="R263" s="26"/>
+      <c r="T263" s="54"/>
+    </row>
+    <row r="264" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C264" s="36">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="D264" s="37"/>
+      <c r="E264" s="38"/>
+      <c r="F264" s="39"/>
+      <c r="G264" s="39"/>
+      <c r="H264" s="40"/>
+      <c r="I264" s="39"/>
+      <c r="J264" s="39"/>
+      <c r="K264" s="41"/>
+      <c r="L264" s="42"/>
+      <c r="M264" s="43"/>
+      <c r="N264" s="36"/>
+      <c r="O264" s="32"/>
+      <c r="P264" s="26"/>
+      <c r="Q264" s="26"/>
+      <c r="R264" s="26"/>
+      <c r="T264" s="54"/>
+    </row>
+    <row r="265" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C265" s="36">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="D265" s="37"/>
+      <c r="E265" s="38"/>
+      <c r="F265" s="39"/>
+      <c r="G265" s="39"/>
+      <c r="H265" s="40"/>
+      <c r="I265" s="39"/>
+      <c r="J265" s="39"/>
+      <c r="K265" s="41"/>
+      <c r="L265" s="42"/>
+      <c r="M265" s="43"/>
+      <c r="N265" s="36"/>
+      <c r="O265" s="32"/>
+      <c r="P265" s="26"/>
+      <c r="Q265" s="26"/>
+      <c r="R265" s="26"/>
+      <c r="T265" s="54"/>
+    </row>
+    <row r="266" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C266" s="36">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="D266" s="37"/>
+      <c r="E266" s="38"/>
+      <c r="F266" s="39"/>
+      <c r="G266" s="39"/>
+      <c r="H266" s="40"/>
+      <c r="I266" s="39"/>
+      <c r="J266" s="39"/>
+      <c r="K266" s="41"/>
+      <c r="L266" s="42"/>
+      <c r="M266" s="43"/>
+      <c r="N266" s="36"/>
+      <c r="O266" s="32"/>
+      <c r="P266" s="26"/>
+      <c r="Q266" s="26"/>
+      <c r="R266" s="26"/>
+      <c r="T266" s="54"/>
+    </row>
+    <row r="267" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C267" s="36">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="D267" s="37"/>
+      <c r="E267" s="38"/>
+      <c r="F267" s="39"/>
+      <c r="G267" s="39"/>
+      <c r="H267" s="40"/>
+      <c r="I267" s="39"/>
+      <c r="J267" s="39"/>
+      <c r="K267" s="41"/>
+      <c r="L267" s="42"/>
+      <c r="M267" s="43"/>
+      <c r="N267" s="36"/>
+      <c r="O267" s="32"/>
+      <c r="P267" s="26"/>
+      <c r="Q267" s="26"/>
+      <c r="R267" s="26"/>
+      <c r="T267" s="54"/>
+    </row>
+    <row r="268" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C268" s="36">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="D268" s="37"/>
+      <c r="E268" s="38"/>
+      <c r="F268" s="39"/>
+      <c r="G268" s="39"/>
+      <c r="H268" s="40"/>
+      <c r="I268" s="39"/>
+      <c r="J268" s="39"/>
+      <c r="K268" s="41"/>
+      <c r="L268" s="42"/>
+      <c r="M268" s="43"/>
+      <c r="N268" s="36"/>
+      <c r="O268" s="32"/>
+      <c r="P268" s="26"/>
+      <c r="Q268" s="26"/>
+      <c r="R268" s="26"/>
+      <c r="T268" s="54"/>
+    </row>
+    <row r="269" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C269" s="36">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="D269" s="37"/>
+      <c r="E269" s="38"/>
+      <c r="F269" s="39"/>
+      <c r="G269" s="39"/>
+      <c r="H269" s="40"/>
+      <c r="I269" s="39"/>
+      <c r="J269" s="39"/>
+      <c r="K269" s="41"/>
+      <c r="L269" s="42"/>
+      <c r="M269" s="43"/>
+      <c r="N269" s="36"/>
+      <c r="O269" s="32"/>
+      <c r="P269" s="26"/>
+      <c r="Q269" s="26"/>
+      <c r="R269" s="26"/>
+      <c r="T269" s="54"/>
+    </row>
+    <row r="270" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C270" s="36">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="D270" s="37"/>
+      <c r="E270" s="38"/>
+      <c r="F270" s="39"/>
+      <c r="G270" s="39"/>
+      <c r="H270" s="40"/>
+      <c r="I270" s="39"/>
+      <c r="J270" s="39"/>
+      <c r="K270" s="41"/>
+      <c r="L270" s="42"/>
+      <c r="M270" s="43"/>
+      <c r="N270" s="36"/>
+      <c r="O270" s="32"/>
+      <c r="P270" s="26"/>
+      <c r="Q270" s="26"/>
+      <c r="R270" s="26"/>
+      <c r="T270" s="54"/>
+    </row>
+    <row r="271" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C271" s="36">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="D271" s="37"/>
+      <c r="E271" s="38"/>
+      <c r="F271" s="39"/>
+      <c r="G271" s="39"/>
+      <c r="H271" s="40"/>
+      <c r="I271" s="39"/>
+      <c r="J271" s="39"/>
+      <c r="K271" s="41"/>
+      <c r="L271" s="42"/>
+      <c r="M271" s="43"/>
+      <c r="N271" s="36"/>
+      <c r="O271" s="32"/>
+      <c r="P271" s="26"/>
+      <c r="Q271" s="26"/>
+      <c r="R271" s="26"/>
+      <c r="T271" s="54"/>
+    </row>
+    <row r="272" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="36">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="D272" s="37"/>
+      <c r="E272" s="38"/>
+      <c r="F272" s="39"/>
+      <c r="G272" s="39"/>
+      <c r="H272" s="40"/>
+      <c r="I272" s="39"/>
+      <c r="J272" s="39"/>
+      <c r="K272" s="41"/>
+      <c r="L272" s="42"/>
+      <c r="M272" s="43"/>
+      <c r="N272" s="36"/>
+      <c r="O272" s="32"/>
+      <c r="P272" s="26"/>
+      <c r="Q272" s="26"/>
+      <c r="R272" s="26"/>
+      <c r="T272" s="54"/>
+    </row>
+    <row r="273" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="36">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="D273" s="37"/>
+      <c r="E273" s="38"/>
+      <c r="F273" s="39"/>
+      <c r="G273" s="39"/>
+      <c r="H273" s="40"/>
+      <c r="I273" s="39"/>
+      <c r="J273" s="39"/>
+      <c r="K273" s="41"/>
+      <c r="L273" s="42"/>
+      <c r="M273" s="43"/>
+      <c r="N273" s="36"/>
+      <c r="O273" s="32"/>
+      <c r="P273" s="26"/>
+      <c r="Q273" s="26"/>
+      <c r="R273" s="26"/>
+      <c r="T273" s="54"/>
+    </row>
+    <row r="274" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C274" s="36">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="D274" s="37"/>
+      <c r="E274" s="38"/>
+      <c r="F274" s="39"/>
+      <c r="G274" s="39"/>
+      <c r="H274" s="40"/>
+      <c r="I274" s="39"/>
+      <c r="J274" s="39"/>
+      <c r="K274" s="41"/>
+      <c r="L274" s="42"/>
+      <c r="M274" s="43"/>
+      <c r="N274" s="36"/>
+      <c r="O274" s="32"/>
+      <c r="P274" s="26"/>
+      <c r="Q274" s="26"/>
+      <c r="R274" s="26"/>
+      <c r="T274" s="54"/>
+    </row>
+    <row r="275" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C275" s="36">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="D275" s="37"/>
+      <c r="E275" s="38"/>
+      <c r="F275" s="39"/>
+      <c r="G275" s="39"/>
+      <c r="H275" s="40"/>
+      <c r="I275" s="39"/>
+      <c r="J275" s="39"/>
+      <c r="K275" s="41"/>
+      <c r="L275" s="42"/>
+      <c r="M275" s="43"/>
+      <c r="N275" s="36"/>
+      <c r="O275" s="32"/>
+      <c r="P275" s="26"/>
+      <c r="Q275" s="26"/>
+      <c r="R275" s="26"/>
+      <c r="T275" s="54"/>
+    </row>
+    <row r="276" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C276" s="36">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="D276" s="37"/>
+      <c r="E276" s="38"/>
+      <c r="F276" s="39"/>
+      <c r="G276" s="39"/>
+      <c r="H276" s="40"/>
+      <c r="I276" s="39"/>
+      <c r="J276" s="39"/>
+      <c r="K276" s="41"/>
+      <c r="L276" s="42"/>
+      <c r="M276" s="43"/>
+      <c r="N276" s="36"/>
+      <c r="O276" s="32"/>
+      <c r="P276" s="26"/>
+      <c r="Q276" s="26"/>
+      <c r="R276" s="26"/>
+      <c r="T276" s="54"/>
+    </row>
+    <row r="277" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C277" s="36">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="D277" s="37"/>
+      <c r="E277" s="38"/>
+      <c r="F277" s="39"/>
+      <c r="G277" s="39"/>
+      <c r="H277" s="40"/>
+      <c r="I277" s="39"/>
+      <c r="J277" s="39"/>
+      <c r="K277" s="41"/>
+      <c r="L277" s="42"/>
+      <c r="M277" s="43"/>
+      <c r="N277" s="36"/>
+      <c r="O277" s="32"/>
+      <c r="P277" s="26"/>
+      <c r="Q277" s="26"/>
+      <c r="R277" s="26"/>
+      <c r="T277" s="54"/>
+    </row>
+    <row r="278" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C278" s="36">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="D278" s="37"/>
+      <c r="E278" s="38"/>
+      <c r="F278" s="39"/>
+      <c r="G278" s="39"/>
+      <c r="H278" s="40"/>
+      <c r="I278" s="39"/>
+      <c r="J278" s="39"/>
+      <c r="K278" s="41"/>
+      <c r="L278" s="42"/>
+      <c r="M278" s="43"/>
+      <c r="N278" s="36"/>
+      <c r="O278" s="32"/>
+      <c r="P278" s="26"/>
+      <c r="Q278" s="26"/>
+      <c r="R278" s="26"/>
+      <c r="T278" s="54"/>
+    </row>
+    <row r="279" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C279" s="36">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="D279" s="37"/>
+      <c r="E279" s="38"/>
+      <c r="F279" s="39"/>
+      <c r="G279" s="39"/>
+      <c r="H279" s="40"/>
+      <c r="I279" s="39"/>
+      <c r="J279" s="39"/>
+      <c r="K279" s="41"/>
+      <c r="L279" s="42"/>
+      <c r="M279" s="43"/>
+      <c r="N279" s="36"/>
+      <c r="O279" s="32"/>
+      <c r="P279" s="26"/>
+      <c r="Q279" s="26"/>
+      <c r="R279" s="26"/>
+      <c r="T279" s="54"/>
+    </row>
+    <row r="280" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C280" s="36">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="D280" s="37"/>
+      <c r="E280" s="38"/>
+      <c r="F280" s="39"/>
+      <c r="G280" s="39"/>
+      <c r="H280" s="40"/>
+      <c r="I280" s="39"/>
+      <c r="J280" s="39"/>
+      <c r="K280" s="41"/>
+      <c r="L280" s="42"/>
+      <c r="M280" s="43"/>
+      <c r="N280" s="36"/>
+      <c r="O280" s="32"/>
+      <c r="P280" s="26"/>
+      <c r="Q280" s="26"/>
+      <c r="R280" s="26"/>
+      <c r="T280" s="54"/>
+    </row>
+    <row r="281" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C281" s="36">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="D281" s="37"/>
+      <c r="E281" s="38"/>
+      <c r="F281" s="39"/>
+      <c r="G281" s="39"/>
+      <c r="H281" s="40"/>
+      <c r="I281" s="39"/>
+      <c r="J281" s="39"/>
+      <c r="K281" s="41"/>
+      <c r="L281" s="42"/>
+      <c r="M281" s="43"/>
+      <c r="N281" s="36"/>
+      <c r="O281" s="32"/>
+      <c r="P281" s="26"/>
+      <c r="Q281" s="26"/>
+      <c r="R281" s="26"/>
+      <c r="T281" s="54"/>
+    </row>
+    <row r="282" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C282" s="36">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="D282" s="37"/>
+      <c r="E282" s="38"/>
+      <c r="F282" s="39"/>
+      <c r="G282" s="39"/>
+      <c r="H282" s="40"/>
+      <c r="I282" s="39"/>
+      <c r="J282" s="39"/>
+      <c r="K282" s="41"/>
+      <c r="L282" s="42"/>
+      <c r="M282" s="43"/>
+      <c r="N282" s="36"/>
+      <c r="O282" s="32"/>
+      <c r="P282" s="26"/>
+      <c r="Q282" s="26"/>
+      <c r="R282" s="26"/>
+      <c r="T282" s="54"/>
+    </row>
+    <row r="283" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C283" s="36">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="D283" s="37"/>
+      <c r="E283" s="38"/>
+      <c r="F283" s="39"/>
+      <c r="G283" s="39"/>
+      <c r="H283" s="40"/>
+      <c r="I283" s="39"/>
+      <c r="J283" s="39"/>
+      <c r="K283" s="41"/>
+      <c r="L283" s="42"/>
+      <c r="M283" s="43"/>
+      <c r="N283" s="36"/>
+      <c r="O283" s="32"/>
+      <c r="P283" s="26"/>
+      <c r="Q283" s="26"/>
+      <c r="R283" s="26"/>
+      <c r="T283" s="54"/>
+    </row>
+    <row r="284" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C284" s="36">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="D284" s="37"/>
+      <c r="E284" s="38"/>
+      <c r="F284" s="39"/>
+      <c r="G284" s="39"/>
+      <c r="H284" s="40"/>
+      <c r="I284" s="39"/>
+      <c r="J284" s="39"/>
+      <c r="K284" s="41"/>
+      <c r="L284" s="42"/>
+      <c r="M284" s="56"/>
+      <c r="N284" s="36"/>
+      <c r="O284" s="32"/>
+      <c r="P284" s="26"/>
+      <c r="Q284" s="26"/>
+      <c r="R284" s="26"/>
+      <c r="S284" s="21"/>
+    </row>
+    <row r="285" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C285" s="36">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="D285" s="37"/>
+      <c r="E285" s="38"/>
+      <c r="F285" s="39"/>
+      <c r="G285" s="39"/>
+      <c r="H285" s="40"/>
+      <c r="I285" s="39"/>
+      <c r="J285" s="39"/>
+      <c r="K285" s="41"/>
+      <c r="L285" s="42"/>
+      <c r="M285" s="56"/>
+      <c r="N285" s="36"/>
+      <c r="O285" s="32"/>
+      <c r="P285" s="26"/>
+      <c r="Q285" s="26"/>
+      <c r="R285" s="26"/>
+      <c r="S285" s="21"/>
+    </row>
+    <row r="286" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C286" s="36">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="D286" s="37"/>
+      <c r="E286" s="38"/>
+      <c r="F286" s="39"/>
+      <c r="G286" s="39"/>
+      <c r="H286" s="40"/>
+      <c r="I286" s="39"/>
+      <c r="J286" s="39"/>
+      <c r="K286" s="41"/>
+      <c r="L286" s="42"/>
+      <c r="M286" s="56"/>
+      <c r="N286" s="36"/>
+      <c r="O286" s="32"/>
+      <c r="P286" s="26"/>
+      <c r="Q286" s="26"/>
+      <c r="R286" s="26"/>
+      <c r="S286" s="21"/>
+      <c r="T286" s="21"/>
+    </row>
+    <row r="287" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C287" s="36">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="D287" s="37"/>
+      <c r="E287" s="38"/>
+      <c r="F287" s="39"/>
+      <c r="G287" s="39"/>
+      <c r="H287" s="40"/>
+      <c r="I287" s="39"/>
+      <c r="J287" s="39"/>
+      <c r="K287" s="41"/>
+      <c r="L287" s="42"/>
+      <c r="M287" s="56"/>
+      <c r="N287" s="36"/>
+      <c r="O287" s="32"/>
+      <c r="P287" s="26"/>
+      <c r="Q287" s="26"/>
+      <c r="R287" s="26"/>
+      <c r="S287" s="21"/>
+      <c r="T287" s="21"/>
+    </row>
+    <row r="288" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C288" s="36">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="D288" s="37"/>
+      <c r="E288" s="38"/>
+      <c r="F288" s="39"/>
+      <c r="G288" s="39"/>
+      <c r="H288" s="40"/>
+      <c r="I288" s="39"/>
+      <c r="J288" s="39"/>
+      <c r="K288" s="41"/>
+      <c r="L288" s="42"/>
+      <c r="M288" s="56"/>
+      <c r="N288" s="36"/>
+      <c r="O288" s="32"/>
+      <c r="P288" s="26"/>
+      <c r="Q288" s="26"/>
+      <c r="R288" s="26"/>
+      <c r="S288" s="21"/>
+      <c r="T288" s="21"/>
+    </row>
+    <row r="289" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C289" s="36">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="D289" s="37"/>
+      <c r="E289" s="38"/>
+      <c r="F289" s="39"/>
+      <c r="G289" s="39"/>
+      <c r="H289" s="40"/>
+      <c r="I289" s="39"/>
+      <c r="J289" s="39"/>
+      <c r="K289" s="41"/>
+      <c r="L289" s="42"/>
+      <c r="M289" s="56"/>
+      <c r="N289" s="36"/>
+      <c r="O289" s="32"/>
+      <c r="P289" s="26"/>
+      <c r="Q289" s="26"/>
+      <c r="R289" s="26"/>
+      <c r="S289" s="21"/>
+      <c r="T289" s="21"/>
+    </row>
+    <row r="290" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C290" s="36">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="D290" s="37"/>
+      <c r="E290" s="38"/>
+      <c r="F290" s="39"/>
+      <c r="G290" s="39"/>
+      <c r="H290" s="40"/>
+      <c r="I290" s="39"/>
+      <c r="J290" s="39"/>
+      <c r="K290" s="41"/>
+      <c r="L290" s="42"/>
+      <c r="M290" s="43"/>
+      <c r="N290" s="36"/>
+      <c r="O290" s="32"/>
+      <c r="P290" s="26"/>
+      <c r="Q290" s="26"/>
+      <c r="R290" s="26"/>
+      <c r="S290" s="21"/>
+      <c r="T290" s="21"/>
+    </row>
+    <row r="291" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C291" s="36">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="D291" s="37"/>
+      <c r="E291" s="38"/>
+      <c r="F291" s="39"/>
+      <c r="G291" s="39"/>
+      <c r="H291" s="40"/>
+      <c r="I291" s="39"/>
+      <c r="J291" s="39"/>
+      <c r="K291" s="41"/>
+      <c r="L291" s="42"/>
+      <c r="M291" s="43"/>
+      <c r="N291" s="36"/>
+      <c r="O291" s="32"/>
+      <c r="P291" s="26"/>
+      <c r="Q291" s="26"/>
+      <c r="R291" s="26"/>
+      <c r="S291" s="21"/>
+      <c r="T291" s="21"/>
+    </row>
+    <row r="292" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C292" s="36">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="D292" s="37"/>
+      <c r="E292" s="38"/>
+      <c r="F292" s="39"/>
+      <c r="G292" s="39"/>
+      <c r="H292" s="40"/>
+      <c r="I292" s="39"/>
+      <c r="J292" s="39"/>
+      <c r="K292" s="41"/>
+      <c r="L292" s="42"/>
+      <c r="M292" s="43"/>
+      <c r="N292" s="36"/>
+      <c r="O292" s="32"/>
+      <c r="P292" s="26"/>
+      <c r="Q292" s="26"/>
+      <c r="R292" s="26"/>
+      <c r="S292" s="21"/>
+    </row>
+    <row r="293" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C293" s="36"/>
+      <c r="D293" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E293" s="61"/>
+      <c r="F293" s="61"/>
+      <c r="G293" s="61"/>
+      <c r="H293" s="61"/>
+      <c r="I293" s="61"/>
+      <c r="J293" s="61"/>
+      <c r="K293" s="62"/>
+      <c r="L293" s="63">
+        <f>SUM(L8:L292)</f>
+        <v>0</v>
+      </c>
+      <c r="M293" s="63">
+        <f>SUM(M8:M292)</f>
+        <v>0</v>
+      </c>
+      <c r="N293" s="36"/>
+      <c r="O293" s="32"/>
+      <c r="P293" s="26"/>
+      <c r="Q293" s="26"/>
+      <c r="R293" s="26"/>
+      <c r="S293" s="21"/>
+    </row>
+    <row r="294" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C294" s="36"/>
+      <c r="D294" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
+      <c r="L294" s="63">
+        <f>IF(AND(L293&gt;5000000,L293&lt;20000000),(L293-5000000)*2%,IF(AND(L293&gt;20000000,L293&lt;30000000),(300000+(L293-20000000)*3%),IF(AND(L293&gt;30000000,L293&lt;50000000),600000+(L293-30000000)*4%,IF(AND(L293&gt;50000000),1400000+(L293-50000000)*5%,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="M294" s="63"/>
+      <c r="N294" s="36"/>
+      <c r="O294" s="32"/>
+      <c r="P294" s="26"/>
+      <c r="Q294" s="26"/>
+      <c r="R294" s="26"/>
+      <c r="S294" s="21"/>
+    </row>
+    <row r="295" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C295" s="36"/>
+      <c r="D295" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="67"/>
+      <c r="H295" s="67"/>
+      <c r="I295" s="67"/>
+      <c r="J295" s="67"/>
+      <c r="K295" s="67"/>
+      <c r="L295" s="63">
+        <v>0</v>
+      </c>
+      <c r="M295" s="63"/>
+      <c r="N295" s="36"/>
+      <c r="O295" s="32"/>
+      <c r="P295" s="26"/>
+      <c r="Q295" s="26"/>
+      <c r="R295" s="26"/>
+      <c r="T295" s="54"/>
+    </row>
+    <row r="296" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C296" s="36"/>
+      <c r="D296" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E296" s="67"/>
+      <c r="F296" s="67"/>
+      <c r="G296" s="67"/>
+      <c r="H296" s="67"/>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67"/>
+      <c r="L296" s="63">
+        <f>L293-L294-L295</f>
+        <v>0</v>
+      </c>
+      <c r="M296" s="63"/>
+      <c r="N296" s="36"/>
+      <c r="O296" s="32"/>
+      <c r="P296" s="26"/>
+      <c r="Q296" s="26"/>
+      <c r="R296" s="26"/>
+      <c r="T296" s="54"/>
+    </row>
+    <row r="297" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O297" s="32"/>
+      <c r="P297" s="26"/>
+      <c r="Q297" s="26"/>
+      <c r="R297" s="26"/>
+      <c r="T297" s="54"/>
+    </row>
+    <row r="298" spans="1:20" s="66" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="59"/>
+      <c r="B298" s="59"/>
+      <c r="O298" s="64"/>
+      <c r="P298" s="65"/>
+      <c r="Q298" s="65"/>
+      <c r="R298" s="65"/>
+      <c r="S298" s="59"/>
+    </row>
+    <row r="299" spans="1:20" s="66" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="59"/>
+      <c r="B299" s="59"/>
+      <c r="O299" s="64"/>
+      <c r="P299" s="65"/>
+      <c r="Q299" s="65"/>
+      <c r="R299" s="65"/>
+      <c r="S299" s="68"/>
+    </row>
+    <row r="300" spans="1:20" s="66" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="59"/>
+      <c r="B300" s="59"/>
+      <c r="O300" s="64"/>
+      <c r="P300" s="65"/>
+      <c r="Q300" s="65"/>
+      <c r="R300" s="65"/>
+      <c r="S300" s="68"/>
+    </row>
+    <row r="301" spans="1:20" s="66" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="59"/>
+      <c r="B301" s="59"/>
+      <c r="O301" s="64"/>
+      <c r="P301" s="65"/>
+      <c r="Q301" s="65"/>
+      <c r="R301" s="65"/>
+      <c r="S301" s="59"/>
+    </row>
+    <row r="302" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="21"/>
+      <c r="B302" s="21"/>
+      <c r="C302" s="21"/>
+      <c r="D302" s="84"/>
+      <c r="E302" s="84"/>
+      <c r="F302" s="84"/>
+      <c r="G302" s="84"/>
+      <c r="H302" s="84"/>
+      <c r="I302" s="84"/>
+      <c r="J302" s="84"/>
+      <c r="K302" s="84"/>
+      <c r="L302" s="69"/>
+      <c r="M302" s="69"/>
+      <c r="O302" s="71"/>
+      <c r="P302" s="70"/>
+      <c r="Q302" s="70"/>
+      <c r="R302" s="70"/>
+      <c r="S302" s="20"/>
+    </row>
+    <row r="303" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="21"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="19"/>
+      <c r="F303" s="19"/>
+      <c r="G303" s="21"/>
+      <c r="H303" s="72"/>
+      <c r="I303" s="73"/>
+      <c r="J303" s="19"/>
+      <c r="K303" s="74"/>
+      <c r="N303" s="21"/>
+      <c r="O303" s="76"/>
+      <c r="P303" s="75"/>
+      <c r="Q303" s="75"/>
+      <c r="R303" s="75"/>
+      <c r="S303" s="80"/>
+    </row>
+    <row r="304" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="21"/>
+      <c r="B304" s="21"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="19"/>
+      <c r="F304" s="19"/>
+      <c r="G304" s="21"/>
+      <c r="H304" s="72"/>
+      <c r="I304" s="73"/>
+      <c r="J304" s="19"/>
+      <c r="K304" s="74"/>
+      <c r="N304" s="21"/>
+      <c r="O304" s="18"/>
+      <c r="P304" s="19"/>
+      <c r="Q304" s="19"/>
+      <c r="R304" s="19"/>
+      <c r="S304" s="80"/>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S305" s="80"/>
+    </row>
+    <row r="308" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="21"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="19"/>
+      <c r="F308" s="19"/>
+      <c r="G308" s="21"/>
+      <c r="H308" s="72"/>
+      <c r="I308" s="73"/>
+      <c r="J308" s="19"/>
+      <c r="K308" s="74"/>
+      <c r="N308" s="21"/>
+      <c r="O308" s="71"/>
+      <c r="P308" s="70"/>
+      <c r="Q308" s="70"/>
+      <c r="R308" s="70"/>
+      <c r="S308" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S155:S157"/>
+    <mergeCell ref="S303:S305"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="C5:N6"/>
-    <mergeCell ref="D154:K154"/>
+    <mergeCell ref="D302:K302"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N144" xr:uid="{8A46D45A-679D-424A-9EA0-5F84BDFAB1E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N292" xr:uid="{8A46D45A-679D-424A-9EA0-5F84BDFAB1E8}">
       <formula1>$S$2:$S$12</formula1>
     </dataValidation>
   </dataValidations>

--- a/ASP.NET CORE/Car_MNS/CarMNS/CarMNS/wwwroot/templates/Taxi Draff Form_Tmp.xlsx
+++ b/ASP.NET CORE/Car_MNS/CarMNS/CarMNS/wwwroot/templates/Taxi Draff Form_Tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\Car_MNS\CarMNS\CarMNS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A04046-4347-4B6B-99C5-55A2A53B75CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9645C-D374-498F-BCC3-F07B8D36B7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="38640" windowHeight="21240" xr2:uid="{7BD6D882-BC72-4FBB-A3DF-791E36A12118}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD6D882-BC72-4FBB-A3DF-791E36A12118}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Số tiền</t>
-  </si>
-  <si>
-    <t>ACC</t>
   </si>
   <si>
     <t>CSP</t>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>PARK HYUNG JOON</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179013F7-CDEC-40C6-B314-9967EA43450A}">
   <dimension ref="A1:U308"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="79">
-        <f>SUMIF($N$8:$N$292,S2,$M$8:$M$292)</f>
+        <f t="shared" ref="T2:T12" si="0">SUMIF($N$8:$N$292,S2,$M$8:$M$292)</f>
         <v>0</v>
       </c>
       <c r="U2" s="12"/>
@@ -2788,14 +2788,14 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="13">
-        <f t="shared" ref="R3:R9" si="0">1+R2</f>
+        <f t="shared" ref="R3:R9" si="1">1+R2</f>
         <v>2</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="15">
-        <f>SUMIF($N$8:$N$292,S3,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="12"/>
@@ -2819,14 +2819,14 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="15">
-        <f>SUMIF($N$8:$N$292,S4,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="12"/>
@@ -2847,14 +2847,14 @@
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="R5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="T5" s="15">
-        <f>SUMIF($N$8:$N$292,S5,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5" s="20"/>
@@ -2876,14 +2876,14 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="T6" s="15">
-        <f>SUMIF($N$8:$N$292,S6,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
         <v>21</v>
       </c>
       <c r="T7" s="15">
-        <f>SUMIF($N$8:$N$292,S7,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2958,14 +2958,14 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="S8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="T8" s="15">
-        <f>SUMIF($N$8:$N$292,S8,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2989,20 +2989,20 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="T9" s="15">
-        <f>SUMIF($N$8:$N$292,S9,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
-        <f t="shared" ref="C10:C73" si="1">1+C9</f>
+        <f t="shared" ref="C10:C73" si="2">1+C9</f>
         <v>3</v>
       </c>
       <c r="D10" s="37"/>
@@ -3027,13 +3027,13 @@
         <v>24</v>
       </c>
       <c r="T10" s="15">
-        <f>SUMIF($N$8:$N$292,S10,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D11" s="37"/>
@@ -3058,13 +3058,13 @@
         <v>25</v>
       </c>
       <c r="T11" s="15">
-        <f>SUMIF($N$8:$N$292,S11,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D12" s="37"/>
@@ -3089,13 +3089,13 @@
         <v>26</v>
       </c>
       <c r="T12" s="35">
-        <f>SUMIF($N$8:$N$292,S12,$M$8:$M$292)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D13" s="37"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="14" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D14" s="37"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="15" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D15" s="37"/>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="16" spans="3:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D16" s="37"/>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="17" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D17" s="37"/>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="18" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D18" s="37"/>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="52" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="T18" s="53">
         <f>SUMIF($G$8:$G$292,$S18,$M$8:$M$292)</f>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="19" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D19" s="37"/>
@@ -3266,16 +3266,16 @@
         <v>2</v>
       </c>
       <c r="S19" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T19" s="53">
-        <f>SUMIF($G$8:$G$292,$S19,$L$8:$L$292)</f>
+        <f t="shared" ref="T19:T34" si="3">SUMIF($G$8:$G$292,$S19,$L$8:$L$292)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:20" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D20" s="37"/>
@@ -3293,20 +3293,20 @@
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="51">
-        <f t="shared" ref="R20:R33" si="2">1+R19</f>
+        <f t="shared" ref="R20:R33" si="4">1+R19</f>
         <v>3</v>
       </c>
       <c r="S20" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="53">
-        <f>SUMIF($G$8:$G$292,$S20,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D21" s="37"/>
@@ -3324,20 +3324,20 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S21" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T21" s="53">
-        <f>SUMIF($G$8:$G$292,$S21,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D22" s="37"/>
@@ -3355,20 +3355,20 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
       <c r="R22" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S22" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T22" s="53">
-        <f>SUMIF($G$8:$G$292,$S22,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D23" s="37"/>
@@ -3386,20 +3386,20 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S23" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T23" s="53">
-        <f>SUMIF($G$8:$G$292,$S23,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D24" s="37"/>
@@ -3417,20 +3417,20 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="S24" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T24" s="53">
-        <f>SUMIF($G$8:$G$292,$S24,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D25" s="37"/>
@@ -3448,20 +3448,20 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S25" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T25" s="53">
-        <f>SUMIF($G$8:$G$292,$S25,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D26" s="37"/>
@@ -3479,20 +3479,20 @@
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S26" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T26" s="53">
-        <f>SUMIF($G$8:$G$292,$S26,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D27" s="37"/>
@@ -3510,20 +3510,20 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S27" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T27" s="53">
-        <f>SUMIF($G$8:$G$292,$S27,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D28" s="37"/>
@@ -3541,20 +3541,20 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
       <c r="R28" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S28" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T28" s="53">
-        <f>SUMIF($G$8:$G$292,$S28,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D29" s="37"/>
@@ -3572,20 +3572,20 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="S29" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T29" s="53">
-        <f>SUMIF($G$8:$G$292,$S29,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D30" s="37"/>
@@ -3603,20 +3603,20 @@
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S30" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T30" s="53">
-        <f>SUMIF($G$8:$G$292,$S30,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:20" s="55" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D31" s="37"/>
@@ -3634,20 +3634,20 @@
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S31" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T31" s="53">
-        <f>SUMIF($G$8:$G$292,$S31,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:20" s="55" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D32" s="37"/>
@@ -3665,20 +3665,20 @@
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="S32" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T32" s="53">
-        <f>SUMIF($G$8:$G$292,$S32,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D33" s="37"/>
@@ -3696,20 +3696,20 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="S33" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T33" s="53">
-        <f>SUMIF($G$8:$G$292,$S33,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D34" s="37"/>
@@ -3731,16 +3731,16 @@
         <v>17</v>
       </c>
       <c r="S34" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" s="58">
-        <f>SUMIF($G$8:$G$292,$S34,$L$8:$L$292)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D35" s="37"/>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="36" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D36" s="37"/>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="37" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D37" s="37"/>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="38" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D38" s="37"/>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="39" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D39" s="37"/>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="40" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D40" s="37"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="41" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D41" s="37"/>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="42" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D42" s="37"/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="43" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D43" s="37"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="44" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D44" s="37"/>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="45" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D45" s="37"/>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="46" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D46" s="37"/>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="47" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D47" s="37"/>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="48" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D48" s="37"/>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="49" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D49" s="37"/>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="50" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D50" s="37"/>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="51" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D51" s="37"/>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="52" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D52" s="37"/>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="53" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D53" s="37"/>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="54" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D54" s="37"/>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="55" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D55" s="37"/>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="56" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D56" s="37"/>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="57" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D57" s="37"/>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="58" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D58" s="37"/>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="59" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D59" s="37"/>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="60" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D60" s="37"/>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="61" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D61" s="37"/>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="62" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D62" s="37"/>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="63" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D63" s="37"/>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="64" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D64" s="37"/>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="65" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D65" s="37"/>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="66" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D66" s="37"/>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="67" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D67" s="37"/>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="68" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D68" s="37"/>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="69" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D69" s="37"/>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="70" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D70" s="37"/>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="71" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D71" s="37"/>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="72" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D72" s="37"/>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="73" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D73" s="37"/>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="74" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="36">
-        <f t="shared" ref="C74:C138" si="3">1+C73</f>
+        <f t="shared" ref="C74:C138" si="5">1+C73</f>
         <v>67</v>
       </c>
       <c r="D74" s="37"/>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="75" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D75" s="37"/>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="76" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="D76" s="37"/>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="77" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="D77" s="37"/>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="78" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="D78" s="37"/>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="79" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="D79" s="37"/>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="80" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="D80" s="37"/>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="81" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="D81" s="37"/>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="82" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="D82" s="37"/>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="83" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="D83" s="37"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="84" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="D84" s="37"/>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="85" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="D85" s="37"/>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="86" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="D86" s="37"/>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="87" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="D87" s="37"/>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="88" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="D88" s="37"/>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="89" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="D89" s="37"/>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="90" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="D90" s="37"/>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="91" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="D91" s="37"/>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="92" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="D92" s="37"/>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="93" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="D93" s="37"/>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="94" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="D94" s="37"/>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="95" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="D95" s="37"/>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="96" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="D96" s="37"/>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="97" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="D97" s="37"/>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="98" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="D98" s="37"/>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="99" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="D99" s="37"/>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="100" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="D100" s="37"/>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="101" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="D101" s="37"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="102" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="D102" s="37"/>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="103" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="D103" s="37"/>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="104" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="D104" s="37"/>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="105" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="D105" s="37"/>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="106" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="D106" s="37"/>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="107" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="D107" s="37"/>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="108" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="D108" s="37"/>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="109" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="D109" s="37"/>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="110" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="D110" s="37"/>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="111" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="D111" s="37"/>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="112" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="D112" s="37"/>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="113" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="D113" s="37"/>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="114" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="D114" s="37"/>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="115" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="D115" s="37"/>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="116" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="D116" s="37"/>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="117" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="D117" s="37"/>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="118" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="D118" s="37"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="119" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="D119" s="37"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="120" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="D120" s="37"/>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="121" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="D121" s="37"/>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="122" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="D122" s="37"/>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="123" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="D123" s="37"/>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="124" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="D124" s="37"/>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="125" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="D125" s="37"/>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="126" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="D126" s="37"/>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="127" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="D127" s="37"/>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="128" spans="3:19" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="D128" s="37"/>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="129" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="D129" s="37"/>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="130" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="D130" s="37"/>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="131" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="D131" s="37"/>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="132" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="D132" s="37"/>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="133" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="D133" s="37"/>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="134" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="D134" s="37"/>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="135" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="D135" s="37"/>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="136" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="D136" s="37"/>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="137" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="D137" s="37"/>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="138" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="D138" s="37"/>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="139" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="36">
-        <f t="shared" ref="C139:C292" si="4">1+C138</f>
+        <f t="shared" ref="C139:C292" si="6">1+C138</f>
         <v>132</v>
       </c>
       <c r="D139" s="37"/>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="140" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="D140" s="37"/>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="141" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="D141" s="37"/>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="142" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="D142" s="37"/>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="143" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="D143" s="37"/>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="144" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="D144" s="37"/>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="145" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="D145" s="37"/>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="146" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="D146" s="37"/>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="147" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="D147" s="37"/>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="148" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="D148" s="37"/>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="149" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="D149" s="37"/>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="150" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="D150" s="37"/>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="151" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="D151" s="37"/>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="152" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="D152" s="37"/>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="153" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="D153" s="37"/>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="154" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="D154" s="37"/>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="155" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="D155" s="37"/>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="156" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="D156" s="37"/>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="157" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="D157" s="37"/>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="158" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="D158" s="37"/>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="159" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="D159" s="37"/>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="160" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="D160" s="37"/>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="161" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="D161" s="37"/>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="162" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="D162" s="37"/>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="163" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="D163" s="37"/>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="164" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="D164" s="37"/>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="165" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="D165" s="37"/>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="166" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="D166" s="37"/>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="167" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="D167" s="37"/>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="168" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="D168" s="37"/>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="169" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="D169" s="37"/>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="170" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="D170" s="37"/>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="171" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="D171" s="37"/>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="172" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="D172" s="37"/>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="173" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="D173" s="37"/>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="174" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="D174" s="37"/>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="175" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="D175" s="37"/>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="176" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="D176" s="37"/>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="177" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="D177" s="37"/>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="178" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="D178" s="37"/>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="179" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="D179" s="37"/>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="180" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="D180" s="37"/>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="181" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="D181" s="37"/>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="182" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="D182" s="37"/>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="183" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>176</v>
       </c>
       <c r="D183" s="37"/>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="184" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="D184" s="37"/>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="185" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="D185" s="37"/>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="186" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="D186" s="37"/>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="187" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="D187" s="37"/>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="188" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="D188" s="37"/>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="189" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="D189" s="37"/>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="190" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="D190" s="37"/>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="191" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="D191" s="37"/>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="192" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="D192" s="37"/>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="193" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="D193" s="37"/>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="194" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="D194" s="37"/>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="195" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="D195" s="37"/>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="196" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="D196" s="37"/>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="197" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="D197" s="37"/>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="198" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="D198" s="37"/>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="199" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="D199" s="37"/>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="200" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="D200" s="37"/>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="201" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="D201" s="37"/>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="202" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="D202" s="37"/>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="203" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="D203" s="37"/>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="204" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
       <c r="D204" s="37"/>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="205" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="D205" s="37"/>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="206" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="D206" s="37"/>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="207" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="D207" s="37"/>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="208" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="D208" s="37"/>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="209" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
       <c r="D209" s="37"/>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="210" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="D210" s="37"/>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="211" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
       <c r="D211" s="37"/>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="212" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="D212" s="37"/>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="213" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="D213" s="37"/>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="214" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
       <c r="D214" s="37"/>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="215" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
       <c r="D215" s="37"/>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="216" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>209</v>
       </c>
       <c r="D216" s="37"/>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="217" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="D217" s="37"/>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="218" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
       <c r="D218" s="37"/>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="219" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
       <c r="D219" s="37"/>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="220" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
       <c r="D220" s="37"/>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="221" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>214</v>
       </c>
       <c r="D221" s="37"/>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="222" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="D222" s="37"/>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="223" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="D223" s="37"/>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="224" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>217</v>
       </c>
       <c r="D224" s="37"/>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="225" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>218</v>
       </c>
       <c r="D225" s="37"/>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="226" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="D226" s="37"/>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="227" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="D227" s="37"/>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="228" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
       <c r="D228" s="37"/>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="229" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
       <c r="D229" s="37"/>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="230" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
       <c r="D230" s="37"/>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="231" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>224</v>
       </c>
       <c r="D231" s="37"/>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="232" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D232" s="37"/>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="233" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>226</v>
       </c>
       <c r="D233" s="37"/>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="234" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>227</v>
       </c>
       <c r="D234" s="37"/>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="235" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
       <c r="D235" s="37"/>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="236" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>229</v>
       </c>
       <c r="D236" s="37"/>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="237" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="D237" s="37"/>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="238" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
       <c r="D238" s="37"/>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="239" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>232</v>
       </c>
       <c r="D239" s="37"/>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="240" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>233</v>
       </c>
       <c r="D240" s="37"/>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="241" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>234</v>
       </c>
       <c r="D241" s="37"/>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="242" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
       <c r="D242" s="37"/>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="243" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>236</v>
       </c>
       <c r="D243" s="37"/>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="244" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>237</v>
       </c>
       <c r="D244" s="37"/>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="245" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
       <c r="D245" s="37"/>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="246" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>239</v>
       </c>
       <c r="D246" s="37"/>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="247" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D247" s="37"/>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="248" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>241</v>
       </c>
       <c r="D248" s="37"/>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="249" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>242</v>
       </c>
       <c r="D249" s="37"/>
@@ -8458,7 +8458,7 @@
     </row>
     <row r="250" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
       <c r="D250" s="37"/>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="251" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>244</v>
       </c>
       <c r="D251" s="37"/>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="252" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
       <c r="D252" s="37"/>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="253" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>246</v>
       </c>
       <c r="D253" s="37"/>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="254" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
       <c r="D254" s="37"/>
@@ -8568,7 +8568,7 @@
     </row>
     <row r="255" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>248</v>
       </c>
       <c r="D255" s="37"/>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="256" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
       <c r="D256" s="37"/>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="257" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="D257" s="37"/>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="258" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
       <c r="D258" s="37"/>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="259" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>252</v>
       </c>
       <c r="D259" s="37"/>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="260" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>253</v>
       </c>
       <c r="D260" s="37"/>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="261" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>254</v>
       </c>
       <c r="D261" s="37"/>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="262" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="D262" s="37"/>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="263" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="D263" s="37"/>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="264" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>257</v>
       </c>
       <c r="D264" s="37"/>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="265" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>258</v>
       </c>
       <c r="D265" s="37"/>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="266" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259</v>
       </c>
       <c r="D266" s="37"/>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="267" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="D267" s="37"/>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="268" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>261</v>
       </c>
       <c r="D268" s="37"/>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="269" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>262</v>
       </c>
       <c r="D269" s="37"/>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="270" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>263</v>
       </c>
       <c r="D270" s="37"/>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="271" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
       <c r="D271" s="37"/>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="272" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>265</v>
       </c>
       <c r="D272" s="37"/>
@@ -8964,7 +8964,7 @@
     </row>
     <row r="273" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>266</v>
       </c>
       <c r="D273" s="37"/>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="274" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>267</v>
       </c>
       <c r="D274" s="37"/>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="275" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>268</v>
       </c>
       <c r="D275" s="37"/>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="276" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="D276" s="37"/>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="277" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="D277" s="37"/>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="278" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>271</v>
       </c>
       <c r="D278" s="37"/>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="279" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="D279" s="37"/>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="280" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="D280" s="37"/>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="281" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>274</v>
       </c>
       <c r="D281" s="37"/>
@@ -9162,7 +9162,7 @@
     </row>
     <row r="282" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275</v>
       </c>
       <c r="D282" s="37"/>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="283" spans="3:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>276</v>
       </c>
       <c r="D283" s="37"/>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="284" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="D284" s="37"/>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="285" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>278</v>
       </c>
       <c r="D285" s="37"/>
@@ -9250,7 +9250,7 @@
     </row>
     <row r="286" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="D286" s="37"/>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="287" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="D287" s="37"/>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="288" spans="3:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>281</v>
       </c>
       <c r="D288" s="37"/>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="289" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="D289" s="37"/>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="290" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>283</v>
       </c>
       <c r="D290" s="37"/>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="291" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>284</v>
       </c>
       <c r="D291" s="37"/>
@@ -9388,7 +9388,7 @@
     </row>
     <row r="292" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D292" s="37"/>
@@ -9411,7 +9411,7 @@
     <row r="293" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="36"/>
       <c r="D293" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E293" s="61"/>
       <c r="F293" s="61"/>
@@ -9438,7 +9438,7 @@
     <row r="294" spans="1:20" s="54" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="36"/>
       <c r="D294" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E294" s="67"/>
       <c r="F294" s="67"/>
@@ -9462,7 +9462,7 @@
     <row r="295" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="36"/>
       <c r="D295" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E295" s="67"/>
       <c r="F295" s="67"/>
@@ -9485,7 +9485,7 @@
     <row r="296" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="36"/>
       <c r="D296" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E296" s="67"/>
       <c r="F296" s="67"/>
@@ -9675,178 +9675,178 @@
     </row>
     <row r="4" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="78" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="78" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="78" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="78" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="78" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="78" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="78" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="78" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="78" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="78" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
